--- a/BackTest/2019-11-13 BackTest DAC.xlsx
+++ b/BackTest/2019-11-13 BackTest DAC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.3200000000000003</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-20</v>
+      </c>
       <c r="L12" t="n">
         <v>3.425</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.3400000000000003</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-12.5</v>
+      </c>
       <c r="L13" t="n">
         <v>3.421</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.4400000000000004</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L14" t="n">
         <v>3.407</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.4500000000000002</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-12.5</v>
+      </c>
       <c r="L15" t="n">
         <v>3.392</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.52</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-20</v>
+      </c>
       <c r="L16" t="n">
         <v>3.395</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.5299999999999998</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-17.24137931034477</v>
+      </c>
       <c r="L17" t="n">
         <v>3.388</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.6000000000000001</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-29.41176470588236</v>
+      </c>
       <c r="L18" t="n">
         <v>3.376</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.6000000000000001</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-41.93548387096784</v>
+      </c>
       <c r="L19" t="n">
         <v>3.366</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.7100000000000004</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-4.761904761904762</v>
+      </c>
       <c r="L20" t="n">
         <v>3.363999999999999</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.8100000000000005</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-18.36734693877547</v>
+      </c>
       <c r="L21" t="n">
         <v>3.351999999999999</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.8700000000000006</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-9.433962264150905</v>
+      </c>
       <c r="L22" t="n">
         <v>3.348999999999999</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.9300000000000006</v>
       </c>
       <c r="K23" t="n">
-        <v>-3.296703296703273</v>
+        <v>22.44897959183679</v>
       </c>
       <c r="L23" t="n">
         <v>3.349999999999999</v>
@@ -1466,7 +1488,7 @@
         <v>0.9300000000000006</v>
       </c>
       <c r="K24" t="n">
-        <v>-3.296703296703273</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>3.360999999999999</v>
@@ -1515,7 +1537,7 @@
         <v>0.9300000000000006</v>
       </c>
       <c r="K25" t="n">
-        <v>-3.296703296703273</v>
+        <v>12.19512195121956</v>
       </c>
       <c r="L25" t="n">
         <v>3.372999999999999</v>
@@ -1564,7 +1586,7 @@
         <v>0.9400000000000004</v>
       </c>
       <c r="K26" t="n">
-        <v>11.11111111111109</v>
+        <v>17.07317073170725</v>
       </c>
       <c r="L26" t="n">
         <v>3.378999999999999</v>
@@ -1613,7 +1635,7 @@
         <v>0.9700000000000002</v>
       </c>
       <c r="K27" t="n">
-        <v>-3.999999999999972</v>
+        <v>29.72972972972981</v>
       </c>
       <c r="L27" t="n">
         <v>3.382999999999999</v>
@@ -1662,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>-5.263157894736842</v>
+        <v>20</v>
       </c>
       <c r="L28" t="n">
         <v>3.391</v>
@@ -1711,7 +1733,7 @@
         <v>1.010000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>-1.333333333333304</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L29" t="n">
         <v>3.4</v>
@@ -1760,7 +1782,7 @@
         <v>1.02</v>
       </c>
       <c r="K30" t="n">
-        <v>-4.109589041095922</v>
+        <v>42.8571428571428</v>
       </c>
       <c r="L30" t="n">
         <v>3.399</v>
@@ -1809,7 +1831,7 @@
         <v>1.06</v>
       </c>
       <c r="K31" t="n">
-        <v>1.29870129870127</v>
+        <v>36.84210526315782</v>
       </c>
       <c r="L31" t="n">
         <v>3.411999999999999</v>
@@ -1860,7 +1882,7 @@
         <v>1.06</v>
       </c>
       <c r="K32" t="n">
-        <v>5.405405405405409</v>
+        <v>7.692307692307534</v>
       </c>
       <c r="L32" t="n">
         <v>3.418999999999999</v>
@@ -1911,7 +1933,7 @@
         <v>1.070000000000001</v>
       </c>
       <c r="K33" t="n">
-        <v>4.109589041095922</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L33" t="n">
         <v>3.420999999999999</v>
@@ -1962,7 +1984,7 @@
         <v>1.080000000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>18.75</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L34" t="n">
         <v>3.421999999999999</v>
@@ -2013,7 +2035,7 @@
         <v>1.090000000000001</v>
       </c>
       <c r="K35" t="n">
-        <v>21.87499999999999</v>
+        <v>6.666666666666784</v>
       </c>
       <c r="L35" t="n">
         <v>3.423999999999999</v>
@@ -2064,7 +2086,7 @@
         <v>1.100000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>10.34482758620688</v>
+        <v>23.07692307692271</v>
       </c>
       <c r="L36" t="n">
         <v>3.423999999999999</v>
@@ -2115,7 +2137,7 @@
         <v>1.120000000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>15.25423728813553</v>
+        <v>66.66666666666617</v>
       </c>
       <c r="L37" t="n">
         <v>3.428999999999999</v>
@@ -2166,7 +2188,7 @@
         <v>1.120000000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>30.76923076923072</v>
+        <v>63.63636363636304</v>
       </c>
       <c r="L38" t="n">
         <v>3.436999999999999</v>
@@ -2217,7 +2239,7 @@
         <v>1.130000000000002</v>
       </c>
       <c r="K39" t="n">
-        <v>32.07547169811318</v>
+        <v>63.63636363636319</v>
       </c>
       <c r="L39" t="n">
         <v>3.444999999999999</v>
@@ -2268,7 +2290,7 @@
         <v>1.130000000000002</v>
       </c>
       <c r="K40" t="n">
-        <v>14.28571428571425</v>
+        <v>42.85714285714249</v>
       </c>
       <c r="L40" t="n">
         <v>3.451999999999999</v>
@@ -2319,7 +2341,7 @@
         <v>1.140000000000002</v>
       </c>
       <c r="K41" t="n">
-        <v>45.45454545454524</v>
+        <v>24.99999999999958</v>
       </c>
       <c r="L41" t="n">
         <v>3.453999999999999</v>
@@ -2370,7 +2392,7 @@
         <v>1.150000000000002</v>
       </c>
       <c r="K42" t="n">
-        <v>35.71428571428554</v>
+        <v>24.99999999999958</v>
       </c>
       <c r="L42" t="n">
         <v>3.456999999999999</v>
@@ -2421,7 +2443,7 @@
         <v>1.160000000000002</v>
       </c>
       <c r="K43" t="n">
-        <v>13.04347826086938</v>
+        <v>24.99999999999958</v>
       </c>
       <c r="L43" t="n">
         <v>3.457999999999999</v>
@@ -2472,7 +2494,7 @@
         <v>1.160000000000002</v>
       </c>
       <c r="K44" t="n">
-        <v>13.04347826086938</v>
+        <v>14.28571428571374</v>
       </c>
       <c r="L44" t="n">
         <v>3.46</v>
@@ -2523,7 +2545,7 @@
         <v>1.200000000000002</v>
       </c>
       <c r="K45" t="n">
-        <v>-3.703703703703765</v>
+        <v>-19.99999999999982</v>
       </c>
       <c r="L45" t="n">
         <v>3.456999999999999</v>
@@ -2574,7 +2596,7 @@
         <v>1.220000000000002</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>-19.99999999999982</v>
       </c>
       <c r="L46" t="n">
         <v>3.456999999999999</v>
@@ -2625,7 +2647,7 @@
         <v>1.230000000000002</v>
       </c>
       <c r="K47" t="n">
-        <v>7.69230769230764</v>
+        <v>-27.2727272727269</v>
       </c>
       <c r="L47" t="n">
         <v>3.453999999999999</v>
@@ -2676,7 +2698,7 @@
         <v>1.270000000000002</v>
       </c>
       <c r="K48" t="n">
-        <v>3.703703703703765</v>
+        <v>-57.14285714285696</v>
       </c>
       <c r="L48" t="n">
         <v>3.446999999999999</v>
@@ -2727,7 +2749,7 @@
         <v>1.270000000000002</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>-57.14285714285696</v>
       </c>
       <c r="L49" t="n">
         <v>3.438999999999999</v>
@@ -2778,7 +2800,7 @@
         <v>1.270000000000002</v>
       </c>
       <c r="K50" t="n">
-        <v>-3.999999999999886</v>
+        <v>-53.84615384615359</v>
       </c>
       <c r="L50" t="n">
         <v>3.431</v>
@@ -2829,7 +2851,7 @@
         <v>1.280000000000002</v>
       </c>
       <c r="K51" t="n">
-        <v>-27.27272727272705</v>
+        <v>-69.23076923076928</v>
       </c>
       <c r="L51" t="n">
         <v>3.423</v>
@@ -2880,7 +2902,7 @@
         <v>1.290000000000003</v>
       </c>
       <c r="K52" t="n">
-        <v>-21.73913043478232</v>
+        <v>-53.84615384615359</v>
       </c>
       <c r="L52" t="n">
         <v>3.415</v>
@@ -2931,7 +2953,7 @@
         <v>1.310000000000003</v>
       </c>
       <c r="K53" t="n">
-        <v>-16.66666666666654</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L53" t="n">
         <v>3.41</v>
@@ -2982,7 +3004,7 @@
         <v>1.360000000000003</v>
       </c>
       <c r="K54" t="n">
-        <v>-28.57142857142839</v>
+        <v>-37.49999999999989</v>
       </c>
       <c r="L54" t="n">
         <v>3.4</v>
@@ -3033,7 +3055,7 @@
         <v>1.410000000000003</v>
       </c>
       <c r="K55" t="n">
-        <v>-43.74999999999982</v>
+        <v>-68.42105263157875</v>
       </c>
       <c r="L55" t="n">
         <v>3.389</v>
@@ -3084,7 +3106,7 @@
         <v>1.440000000000003</v>
       </c>
       <c r="K56" t="n">
-        <v>-29.41176470588228</v>
+        <v>-42.85714285714292</v>
       </c>
       <c r="L56" t="n">
         <v>3.379</v>
@@ -3135,7 +3157,7 @@
         <v>1.460000000000003</v>
       </c>
       <c r="K57" t="n">
-        <v>-29.41176470588228</v>
+        <v>-15.78947368421063</v>
       </c>
       <c r="L57" t="n">
         <v>3.372000000000001</v>
@@ -3186,7 +3208,7 @@
         <v>1.460000000000003</v>
       </c>
       <c r="K58" t="n">
-        <v>-29.41176470588228</v>
+        <v>-15.78947368421063</v>
       </c>
       <c r="L58" t="n">
         <v>3.369000000000001</v>
@@ -3237,7 +3259,7 @@
         <v>1.490000000000003</v>
       </c>
       <c r="K59" t="n">
-        <v>-22.22222222222217</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>3.369000000000001</v>
@@ -3288,7 +3310,7 @@
         <v>1.590000000000003</v>
       </c>
       <c r="K60" t="n">
-        <v>-39.13043478260862</v>
+        <v>-29.03225806451604</v>
       </c>
       <c r="L60" t="n">
         <v>3.359</v>
@@ -3339,7 +3361,7 @@
         <v>1.630000000000003</v>
       </c>
       <c r="K61" t="n">
-        <v>-26.53061224489788</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L61" t="n">
         <v>3.354</v>
@@ -3390,7 +3412,7 @@
         <v>1.630000000000003</v>
       </c>
       <c r="K62" t="n">
-        <v>-29.16666666666664</v>
+        <v>-25</v>
       </c>
       <c r="L62" t="n">
         <v>3.348</v>
@@ -3441,7 +3463,7 @@
         <v>1.630000000000003</v>
       </c>
       <c r="K63" t="n">
-        <v>-27.65957446808505</v>
+        <v>-11.11111111111104</v>
       </c>
       <c r="L63" t="n">
         <v>3.339999999999999</v>
@@ -3492,7 +3514,7 @@
         <v>1.650000000000003</v>
       </c>
       <c r="K64" t="n">
-        <v>-22.44897959183668</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L64" t="n">
         <v>3.339</v>
@@ -3543,7 +3565,7 @@
         <v>1.660000000000003</v>
       </c>
       <c r="K65" t="n">
-        <v>-13.04347826086956</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L65" t="n">
         <v>3.343999999999999</v>
@@ -3594,7 +3616,7 @@
         <v>1.700000000000003</v>
       </c>
       <c r="K66" t="n">
-        <v>-8.333333333333332</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L66" t="n">
         <v>3.349999999999999</v>
@@ -3645,7 +3667,7 @@
         <v>1.700000000000003</v>
       </c>
       <c r="K67" t="n">
-        <v>-6.3829787234043</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L67" t="n">
         <v>3.353999999999998</v>
@@ -3696,7 +3718,7 @@
         <v>1.740000000000003</v>
       </c>
       <c r="K68" t="n">
-        <v>-6.3829787234043</v>
+        <v>-12.0000000000001</v>
       </c>
       <c r="L68" t="n">
         <v>3.353999999999998</v>
@@ -3747,7 +3769,7 @@
         <v>1.780000000000003</v>
       </c>
       <c r="K69" t="n">
-        <v>1.960784313725446</v>
+        <v>57.89473684210521</v>
       </c>
       <c r="L69" t="n">
         <v>3.354999999999998</v>
@@ -3798,7 +3820,7 @@
         <v>1.780000000000003</v>
       </c>
       <c r="K70" t="n">
-        <v>1.960784313725446</v>
+        <v>46.66666666666659</v>
       </c>
       <c r="L70" t="n">
         <v>3.365999999999998</v>
@@ -3849,7 +3871,7 @@
         <v>1.790000000000003</v>
       </c>
       <c r="K71" t="n">
-        <v>5.882352941176512</v>
+        <v>50</v>
       </c>
       <c r="L71" t="n">
         <v>3.373999999999998</v>
@@ -3900,7 +3922,7 @@
         <v>1.800000000000003</v>
       </c>
       <c r="K72" t="n">
-        <v>5.882352941176429</v>
+        <v>52.94117647058817</v>
       </c>
       <c r="L72" t="n">
         <v>3.382999999999998</v>
@@ -3951,7 +3973,7 @@
         <v>1.810000000000003</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>37.50000000000011</v>
       </c>
       <c r="L73" t="n">
         <v>3.390999999999998</v>
@@ -4002,7 +4024,7 @@
         <v>1.820000000000003</v>
       </c>
       <c r="K74" t="n">
-        <v>13.04347826086959</v>
+        <v>37.50000000000011</v>
       </c>
       <c r="L74" t="n">
         <v>3.397999999999998</v>
@@ -4053,7 +4075,7 @@
         <v>1.820000000000003</v>
       </c>
       <c r="K75" t="n">
-        <v>26.82926829268292</v>
+        <v>16.66666666666673</v>
       </c>
       <c r="L75" t="n">
         <v>3.403999999999999</v>
@@ -4104,7 +4126,7 @@
         <v>1.820000000000003</v>
       </c>
       <c r="K76" t="n">
-        <v>21.05263157894739</v>
+        <v>16.66666666666673</v>
       </c>
       <c r="L76" t="n">
         <v>3.405999999999999</v>
@@ -4155,7 +4177,7 @@
         <v>1.830000000000003</v>
       </c>
       <c r="K77" t="n">
-        <v>18.91891891891899</v>
+        <v>77.77777777777821</v>
       </c>
       <c r="L77" t="n">
         <v>3.408999999999999</v>
@@ -4206,7 +4228,7 @@
         <v>1.830000000000003</v>
       </c>
       <c r="K78" t="n">
-        <v>18.91891891891899</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L78" t="n">
         <v>3.415999999999999</v>
@@ -4257,7 +4279,7 @@
         <v>1.850000000000003</v>
       </c>
       <c r="K79" t="n">
-        <v>16.66666666666669</v>
+        <v>71.42857142857197</v>
       </c>
       <c r="L79" t="n">
         <v>3.420999999999999</v>
@@ -4308,7 +4330,7 @@
         <v>1.850000000000003</v>
       </c>
       <c r="K80" t="n">
-        <v>61.53846153846164</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L80" t="n">
         <v>3.426</v>
@@ -4359,7 +4381,7 @@
         <v>1.860000000000003</v>
       </c>
       <c r="K81" t="n">
-        <v>56.52173913043485</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L81" t="n">
         <v>3.431</v>
@@ -4410,7 +4432,7 @@
         <v>1.890000000000002</v>
       </c>
       <c r="K82" t="n">
-        <v>38.46153846153859</v>
+        <v>25.00000000000014</v>
       </c>
       <c r="L82" t="n">
         <v>3.432</v>
@@ -4461,7 +4483,7 @@
         <v>1.920000000000002</v>
       </c>
       <c r="K83" t="n">
-        <v>44.82758620689665</v>
+        <v>40.00000000000018</v>
       </c>
       <c r="L83" t="n">
         <v>3.437</v>
@@ -4512,7 +4534,7 @@
         <v>1.920000000000002</v>
       </c>
       <c r="K84" t="n">
-        <v>40.74074074074083</v>
+        <v>40.00000000000018</v>
       </c>
       <c r="L84" t="n">
         <v>3.441</v>
@@ -4563,7 +4585,7 @@
         <v>1.930000000000002</v>
       </c>
       <c r="K85" t="n">
-        <v>40.74074074074092</v>
+        <v>45.45454545454574</v>
       </c>
       <c r="L85" t="n">
         <v>3.446</v>
@@ -4614,7 +4636,7 @@
         <v>1.940000000000003</v>
       </c>
       <c r="K86" t="n">
-        <v>25.00000000000004</v>
+        <v>27.27272727272713</v>
       </c>
       <c r="L86" t="n">
         <v>3.45</v>

--- a/BackTest/2019-11-13 BackTest DAC.xlsx
+++ b/BackTest/2019-11-13 BackTest DAC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S86"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,65 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -463,37 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.44</v>
+        <v>3.41</v>
       </c>
       <c r="C2" t="n">
-        <v>3.44</v>
+        <v>3.41</v>
       </c>
       <c r="D2" t="n">
-        <v>3.44</v>
+        <v>3.41</v>
       </c>
       <c r="E2" t="n">
-        <v>3.44</v>
+        <v>3.41</v>
       </c>
       <c r="F2" t="n">
-        <v>68337.5601</v>
+        <v>95333.92290000001</v>
       </c>
       <c r="G2" t="n">
-        <v>3.435</v>
+        <v>-100118729.116481</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -502,41 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.46</v>
+        <v>3.41</v>
       </c>
       <c r="C3" t="n">
-        <v>3.46</v>
+        <v>3.41</v>
       </c>
       <c r="D3" t="n">
-        <v>3.46</v>
+        <v>3.41</v>
       </c>
       <c r="E3" t="n">
-        <v>3.46</v>
+        <v>3.41</v>
       </c>
       <c r="F3" t="n">
-        <v>64380</v>
+        <v>194324.9903</v>
       </c>
       <c r="G3" t="n">
-        <v>3.433333333333333</v>
+        <v>-100118729.116481</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.02000000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -545,41 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.46</v>
+        <v>3.52</v>
       </c>
       <c r="C4" t="n">
-        <v>3.46</v>
+        <v>3.43</v>
       </c>
       <c r="D4" t="n">
-        <v>3.46</v>
+        <v>3.52</v>
       </c>
       <c r="E4" t="n">
-        <v>3.46</v>
+        <v>3.43</v>
       </c>
       <c r="F4" t="n">
-        <v>6120.79</v>
+        <v>98581.52250000001</v>
       </c>
       <c r="G4" t="n">
-        <v>3.431666666666666</v>
+        <v>-100020147.593981</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.02000000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,41 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.46</v>
+        <v>3.51</v>
       </c>
       <c r="C5" t="n">
-        <v>3.46</v>
+        <v>3.51</v>
       </c>
       <c r="D5" t="n">
-        <v>3.46</v>
+        <v>3.51</v>
       </c>
       <c r="E5" t="n">
-        <v>3.46</v>
+        <v>3.51</v>
       </c>
       <c r="F5" t="n">
-        <v>184.2013</v>
+        <v>150</v>
       </c>
       <c r="G5" t="n">
-        <v>3.430166666666666</v>
+        <v>-100019997.593981</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.02000000000000002</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -631,41 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.4</v>
+        <v>3.51</v>
       </c>
       <c r="C6" t="n">
-        <v>3.35</v>
+        <v>3.51</v>
       </c>
       <c r="D6" t="n">
-        <v>3.4</v>
+        <v>3.51</v>
       </c>
       <c r="E6" t="n">
-        <v>3.29</v>
+        <v>3.51</v>
       </c>
       <c r="F6" t="n">
-        <v>1780000</v>
+        <v>630.5319</v>
       </c>
       <c r="G6" t="n">
-        <v>3.427166666666666</v>
+        <v>-100019997.593981</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.1299999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -674,41 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.44</v>
+        <v>3.42</v>
       </c>
       <c r="C7" t="n">
-        <v>3.44</v>
+        <v>3.33</v>
       </c>
       <c r="D7" t="n">
-        <v>3.44</v>
+        <v>3.42</v>
       </c>
       <c r="E7" t="n">
-        <v>3.44</v>
+        <v>3.33</v>
       </c>
       <c r="F7" t="n">
-        <v>150</v>
+        <v>282940.2147</v>
       </c>
       <c r="G7" t="n">
-        <v>3.426</v>
+        <v>-100302937.808681</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.2199999999999998</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -717,41 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.35</v>
+        <v>3.34</v>
       </c>
       <c r="C8" t="n">
-        <v>3.42</v>
+        <v>3.34</v>
       </c>
       <c r="D8" t="n">
-        <v>3.42</v>
+        <v>3.34</v>
       </c>
       <c r="E8" t="n">
-        <v>3.35</v>
+        <v>3.34</v>
       </c>
       <c r="F8" t="n">
-        <v>20000</v>
+        <v>865.237</v>
       </c>
       <c r="G8" t="n">
-        <v>3.4245</v>
+        <v>-100302072.571681</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.2399999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -760,41 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.33</v>
+        <v>3.34</v>
       </c>
       <c r="C9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="D9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="E9" t="n">
-        <v>3.33</v>
+        <v>3.34</v>
       </c>
       <c r="F9" t="n">
-        <v>20000</v>
+        <v>55465.2789</v>
       </c>
       <c r="G9" t="n">
-        <v>3.422666666666666</v>
+        <v>-100246607.292781</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.2599999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -803,41 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.42</v>
+        <v>3.35</v>
       </c>
       <c r="C10" t="n">
-        <v>3.43</v>
+        <v>3.35</v>
       </c>
       <c r="D10" t="n">
-        <v>3.43</v>
+        <v>3.35</v>
       </c>
       <c r="E10" t="n">
-        <v>3.42</v>
+        <v>3.35</v>
       </c>
       <c r="F10" t="n">
-        <v>231610.8184</v>
+        <v>29619.2083</v>
       </c>
       <c r="G10" t="n">
-        <v>3.421166666666666</v>
+        <v>-100246607.292781</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -846,43 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.43</v>
+        <v>3.35</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>3.35</v>
       </c>
       <c r="D11" t="n">
-        <v>3.43</v>
+        <v>3.35</v>
       </c>
       <c r="E11" t="n">
-        <v>3.43</v>
+        <v>3.35</v>
       </c>
       <c r="F11" t="n">
-        <v>116332.5883</v>
+        <v>373136.5762</v>
       </c>
       <c r="G11" t="n">
-        <v>3.421</v>
+        <v>-100246607.292781</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>3.429</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -891,45 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.41</v>
+        <v>3.42</v>
       </c>
       <c r="C12" t="n">
-        <v>3.4</v>
+        <v>3.38</v>
       </c>
       <c r="D12" t="n">
-        <v>3.41</v>
+        <v>3.42</v>
       </c>
       <c r="E12" t="n">
-        <v>3.4</v>
+        <v>3.38</v>
       </c>
       <c r="F12" t="n">
-        <v>211143.9336</v>
+        <v>60000</v>
       </c>
       <c r="G12" t="n">
-        <v>3.419833333333334</v>
+        <v>-100186607.292781</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.3200000000000003</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.425</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,45 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.42</v>
+        <v>3.48</v>
       </c>
       <c r="C13" t="n">
-        <v>3.42</v>
+        <v>3.48</v>
       </c>
       <c r="D13" t="n">
-        <v>3.42</v>
+        <v>3.48</v>
       </c>
       <c r="E13" t="n">
-        <v>3.42</v>
+        <v>3.48</v>
       </c>
       <c r="F13" t="n">
-        <v>32670</v>
+        <v>147</v>
       </c>
       <c r="G13" t="n">
-        <v>3.419</v>
+        <v>-100186460.292781</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.3400000000000003</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.421</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -985,45 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.42</v>
+        <v>3.46</v>
       </c>
       <c r="C14" t="n">
-        <v>3.32</v>
+        <v>3.46</v>
       </c>
       <c r="D14" t="n">
-        <v>3.42</v>
+        <v>3.46</v>
       </c>
       <c r="E14" t="n">
-        <v>3.32</v>
+        <v>3.46</v>
       </c>
       <c r="F14" t="n">
-        <v>300000</v>
+        <v>150</v>
       </c>
       <c r="G14" t="n">
-        <v>3.415666666666666</v>
+        <v>-100186610.292781</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.4400000000000004</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.407</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1032,45 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.32</v>
+        <v>3.38</v>
       </c>
       <c r="C15" t="n">
-        <v>3.31</v>
+        <v>3.36</v>
       </c>
       <c r="D15" t="n">
-        <v>3.32</v>
+        <v>3.38</v>
       </c>
       <c r="E15" t="n">
-        <v>3.31</v>
+        <v>3.36</v>
       </c>
       <c r="F15" t="n">
-        <v>80000</v>
+        <v>52372.1495</v>
       </c>
       <c r="G15" t="n">
-        <v>3.4135</v>
+        <v>-100238982.442281</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.4500000000000002</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.392</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1079,45 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.38</v>
+        <v>3.36</v>
       </c>
       <c r="C16" t="n">
-        <v>3.38</v>
+        <v>3.36</v>
       </c>
       <c r="D16" t="n">
-        <v>3.38</v>
+        <v>3.36</v>
       </c>
       <c r="E16" t="n">
-        <v>3.38</v>
+        <v>3.36</v>
       </c>
       <c r="F16" t="n">
-        <v>153</v>
+        <v>15110</v>
       </c>
       <c r="G16" t="n">
-        <v>3.412166666666666</v>
+        <v>-100238982.442281</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.06000000000000005</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.395</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1126,45 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.37</v>
+        <v>3.38</v>
       </c>
       <c r="C17" t="n">
-        <v>3.37</v>
+        <v>3.38</v>
       </c>
       <c r="D17" t="n">
-        <v>3.37</v>
+        <v>3.38</v>
       </c>
       <c r="E17" t="n">
-        <v>3.37</v>
+        <v>3.38</v>
       </c>
       <c r="F17" t="n">
-        <v>22822.822</v>
+        <v>149</v>
       </c>
       <c r="G17" t="n">
-        <v>3.410666666666666</v>
+        <v>-100238833.442281</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.06999999999999984</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5299999999999998</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-17.24137931034477</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.388</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1173,45 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.37</v>
+        <v>3.36</v>
       </c>
       <c r="C18" t="n">
-        <v>3.3</v>
+        <v>3.36</v>
       </c>
       <c r="D18" t="n">
-        <v>3.37</v>
+        <v>3.36</v>
       </c>
       <c r="E18" t="n">
-        <v>3.3</v>
+        <v>3.36</v>
       </c>
       <c r="F18" t="n">
-        <v>302253</v>
+        <v>4890</v>
       </c>
       <c r="G18" t="n">
-        <v>3.407999999999999</v>
+        <v>-100243723.442281</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.1400000000000001</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-29.41176470588236</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.376</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1220,45 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.3</v>
+        <v>3.36</v>
       </c>
       <c r="C19" t="n">
         <v>3.3</v>
       </c>
       <c r="D19" t="n">
-        <v>3.3</v>
+        <v>3.36</v>
       </c>
       <c r="E19" t="n">
         <v>3.3</v>
       </c>
       <c r="F19" t="n">
-        <v>73880.0154</v>
+        <v>809143.0307</v>
       </c>
       <c r="G19" t="n">
-        <v>3.404666666666666</v>
+        <v>-101052866.472981</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1400000000000001</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-41.93548387096784</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.366</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1267,45 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.41</v>
+        <v>3.37</v>
       </c>
       <c r="C20" t="n">
-        <v>3.41</v>
+        <v>3.37</v>
       </c>
       <c r="D20" t="n">
-        <v>3.41</v>
+        <v>3.37</v>
       </c>
       <c r="E20" t="n">
-        <v>3.41</v>
+        <v>3.37</v>
       </c>
       <c r="F20" t="n">
-        <v>20000</v>
+        <v>150</v>
       </c>
       <c r="G20" t="n">
-        <v>3.403833333333333</v>
+        <v>-101052716.472981</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.0299999999999998</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.7100000000000004</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-4.761904761904762</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.363999999999999</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1314,47 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.31</v>
+        <v>3.37</v>
       </c>
       <c r="C21" t="n">
-        <v>3.31</v>
+        <v>3.37</v>
       </c>
       <c r="D21" t="n">
-        <v>3.31</v>
+        <v>3.37</v>
       </c>
       <c r="E21" t="n">
-        <v>3.31</v>
+        <v>3.37</v>
       </c>
       <c r="F21" t="n">
-        <v>1000</v>
+        <v>138869.0602</v>
       </c>
       <c r="G21" t="n">
-        <v>3.402</v>
+        <v>-101052716.472981</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.8100000000000005</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-18.36734693877547</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.351999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>3.3905</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1375,35 +1145,21 @@
         <v>3.37</v>
       </c>
       <c r="F22" t="n">
-        <v>78842.822</v>
+        <v>100000</v>
       </c>
       <c r="G22" t="n">
-        <v>3.401333333333333</v>
+        <v>-101052716.472981</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.06999999999999984</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.8700000000000006</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-9.433962264150905</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3.348999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>3.387</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1412,47 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.41</v>
+        <v>3.38</v>
       </c>
       <c r="C23" t="n">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="D23" t="n">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="E23" t="n">
-        <v>3.41</v>
+        <v>3.38</v>
       </c>
       <c r="F23" t="n">
-        <v>19523.5243</v>
+        <v>47441.6295</v>
       </c>
       <c r="G23" t="n">
-        <v>3.400166666666666</v>
+        <v>-101005274.843481</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.9300000000000006</v>
-      </c>
-      <c r="K23" t="n">
-        <v>22.44897959183679</v>
-      </c>
-      <c r="L23" t="n">
-        <v>3.349999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>3.385500000000001</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1461,47 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
       <c r="C24" t="n">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
       <c r="D24" t="n">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
       <c r="E24" t="n">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
       <c r="F24" t="n">
-        <v>4132.9853</v>
+        <v>146</v>
       </c>
       <c r="G24" t="n">
-        <v>3.400333333333334</v>
+        <v>-101005128.843481</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.9300000000000006</v>
-      </c>
-      <c r="K24" t="n">
-        <v>25</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.360999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>3.384000000000002</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1510,47 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
       <c r="C25" t="n">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
       <c r="D25" t="n">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
       <c r="E25" t="n">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
       <c r="F25" t="n">
-        <v>55693.2974</v>
+        <v>371051.86</v>
       </c>
       <c r="G25" t="n">
-        <v>3.400500000000001</v>
+        <v>-101005128.843481</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.9300000000000006</v>
-      </c>
-      <c r="K25" t="n">
-        <v>12.19512195121956</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.372999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>3.382500000000003</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1559,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
       <c r="C26" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="E26" t="n">
         <v>3.44</v>
       </c>
-      <c r="D26" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="E26" t="n">
-        <v>3.43</v>
-      </c>
       <c r="F26" t="n">
-        <v>163635.4143</v>
+        <v>211526.1769</v>
       </c>
       <c r="G26" t="n">
-        <v>3.400833333333334</v>
+        <v>-100793602.666581</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1582,24 +1296,10 @@
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0.9400000000000004</v>
-      </c>
-      <c r="K26" t="n">
-        <v>17.07317073170725</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3.378999999999999</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>3.387000000000003</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1608,47 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.41</v>
+        <v>3.45</v>
       </c>
       <c r="C27" t="n">
-        <v>3.41</v>
+        <v>3.44</v>
       </c>
       <c r="D27" t="n">
-        <v>3.41</v>
+        <v>3.45</v>
       </c>
       <c r="E27" t="n">
-        <v>3.38</v>
+        <v>3.44</v>
       </c>
       <c r="F27" t="n">
-        <v>35565.4508</v>
+        <v>105397.8642</v>
       </c>
       <c r="G27" t="n">
-        <v>3.400666666666667</v>
+        <v>-100899000.530781</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.0299999999999998</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.9700000000000002</v>
-      </c>
-      <c r="K27" t="n">
-        <v>29.72972972972981</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.382999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>3.385500000000003</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1657,47 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.41</v>
+        <v>3.43</v>
       </c>
       <c r="C28" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="D28" t="n">
-        <v>3.41</v>
+        <v>3.43</v>
       </c>
       <c r="E28" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="F28" t="n">
-        <v>193133.2332</v>
+        <v>68629.4467</v>
       </c>
       <c r="G28" t="n">
-        <v>3.400166666666668</v>
+        <v>-100967629.977481</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.06000000000000005</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>20</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>3.383500000000002</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1706,47 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="C29" t="n">
-        <v>3.39</v>
+        <v>3.43</v>
       </c>
       <c r="D29" t="n">
-        <v>3.39</v>
+        <v>3.43</v>
       </c>
       <c r="E29" t="n">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="F29" t="n">
-        <v>48560</v>
+        <v>141640</v>
       </c>
       <c r="G29" t="n">
-        <v>3.4</v>
+        <v>-100967629.977481</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.010000000000001</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>3.383000000000002</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1755,47 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="C30" t="n">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="D30" t="n">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="E30" t="n">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="F30" t="n">
-        <v>20787.6385</v>
+        <v>23641.791</v>
       </c>
       <c r="G30" t="n">
-        <v>3.399833333333334</v>
+        <v>-100991271.768481</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K30" t="n">
-        <v>42.8571428571428</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>3.381500000000002</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1804,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.43</v>
+        <v>3.48</v>
       </c>
       <c r="C31" t="n">
-        <v>3.44</v>
+        <v>3.48</v>
       </c>
       <c r="D31" t="n">
-        <v>3.44</v>
+        <v>3.48</v>
       </c>
       <c r="E31" t="n">
-        <v>3.43</v>
+        <v>3.48</v>
       </c>
       <c r="F31" t="n">
-        <v>88960.56479999999</v>
+        <v>144</v>
       </c>
       <c r="G31" t="n">
-        <v>3.400333333333334</v>
+        <v>-100991127.768481</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1827,26 +1471,10 @@
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K31" t="n">
-        <v>36.84210526315782</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.411999999999999</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>3.382000000000001</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3.397666666666667</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1867,10 +1495,10 @@
         <v>3.44</v>
       </c>
       <c r="F32" t="n">
-        <v>182947.95</v>
+        <v>68337.5601</v>
       </c>
       <c r="G32" t="n">
-        <v>3.400833333333334</v>
+        <v>-101059465.328581</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1878,26 +1506,10 @@
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K32" t="n">
-        <v>7.692307692307534</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.418999999999999</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>3.384000000000001</v>
-      </c>
-      <c r="N32" t="n">
-        <v>3.397666666666667</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1906,49 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="C33" t="n">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="D33" t="n">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="E33" t="n">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="F33" t="n">
-        <v>150</v>
+        <v>64380</v>
       </c>
       <c r="G33" t="n">
-        <v>3.4015</v>
+        <v>-100995085.328581</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01000000000000023</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.070000000000001</v>
-      </c>
-      <c r="K33" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.420999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>3.385500000000001</v>
-      </c>
-      <c r="N33" t="n">
-        <v>3.397333333333334</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1957,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="C34" t="n">
-        <v>3.44</v>
+        <v>3.46</v>
       </c>
       <c r="D34" t="n">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="E34" t="n">
-        <v>3.44</v>
+        <v>3.46</v>
       </c>
       <c r="F34" t="n">
-        <v>12209.9635</v>
+        <v>6120.79</v>
       </c>
       <c r="G34" t="n">
-        <v>3.401666666666667</v>
+        <v>-100995085.328581</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1980,26 +1576,10 @@
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>1.080000000000001</v>
-      </c>
-      <c r="K34" t="n">
-        <v>6.666666666666508</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3.421999999999999</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>3.391500000000002</v>
-      </c>
-      <c r="N34" t="n">
-        <v>3.396666666666668</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,49 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="C35" t="n">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="D35" t="n">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="E35" t="n">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="F35" t="n">
-        <v>74396.37300000001</v>
+        <v>184.2013</v>
       </c>
       <c r="G35" t="n">
-        <v>3.400666666666667</v>
+        <v>-100995085.328581</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01000000000000023</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.090000000000001</v>
-      </c>
-      <c r="K35" t="n">
-        <v>6.666666666666784</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3.423999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>3.398500000000001</v>
-      </c>
-      <c r="N35" t="n">
-        <v>3.396333333333335</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2059,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.44</v>
+        <v>3.4</v>
       </c>
       <c r="C36" t="n">
-        <v>3.44</v>
+        <v>3.35</v>
       </c>
       <c r="D36" t="n">
-        <v>3.44</v>
+        <v>3.4</v>
       </c>
       <c r="E36" t="n">
-        <v>3.44</v>
+        <v>3.29</v>
       </c>
       <c r="F36" t="n">
-        <v>20000</v>
+        <v>1780000</v>
       </c>
       <c r="G36" t="n">
-        <v>3.399500000000001</v>
+        <v>-102775085.328581</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2082,26 +1646,10 @@
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="K36" t="n">
-        <v>23.07692307692271</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.423999999999999</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>3.401500000000001</v>
-      </c>
-      <c r="N36" t="n">
-        <v>3.399333333333335</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,49 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.45</v>
+        <v>3.44</v>
       </c>
       <c r="C37" t="n">
-        <v>3.46</v>
+        <v>3.44</v>
       </c>
       <c r="D37" t="n">
-        <v>3.46</v>
+        <v>3.44</v>
       </c>
       <c r="E37" t="n">
-        <v>3.45</v>
+        <v>3.44</v>
       </c>
       <c r="F37" t="n">
-        <v>11023.5855</v>
+        <v>150</v>
       </c>
       <c r="G37" t="n">
-        <v>3.401666666666667</v>
+        <v>-102774935.328581</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.120000000000001</v>
-      </c>
-      <c r="K37" t="n">
-        <v>66.66666666666617</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.428999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>3.406000000000001</v>
-      </c>
-      <c r="N37" t="n">
-        <v>3.400000000000001</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2161,49 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="C38" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="D38" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="E38" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="F38" t="n">
-        <v>147126.5509676301</v>
+        <v>20000</v>
       </c>
       <c r="G38" t="n">
-        <v>3.403666666666667</v>
+        <v>-102794935.328581</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.120000000000001</v>
-      </c>
-      <c r="K38" t="n">
-        <v>63.63636363636304</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.436999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>3.414000000000001</v>
-      </c>
-      <c r="N38" t="n">
-        <v>3.401333333333334</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2212,49 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.47</v>
+        <v>3.33</v>
       </c>
       <c r="C39" t="n">
-        <v>3.47</v>
+        <v>3.4</v>
       </c>
       <c r="D39" t="n">
-        <v>3.47</v>
+        <v>3.4</v>
       </c>
       <c r="E39" t="n">
-        <v>3.47</v>
+        <v>3.33</v>
       </c>
       <c r="F39" t="n">
-        <v>150</v>
+        <v>20000</v>
       </c>
       <c r="G39" t="n">
-        <v>3.405666666666667</v>
+        <v>-102814935.328581</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03000000000000025</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.130000000000002</v>
-      </c>
-      <c r="K39" t="n">
-        <v>63.63636363636319</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.444999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>3.422500000000001</v>
-      </c>
-      <c r="N39" t="n">
-        <v>3.403666666666668</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2263,49 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.47</v>
+        <v>3.42</v>
       </c>
       <c r="C40" t="n">
-        <v>3.47</v>
+        <v>3.43</v>
       </c>
       <c r="D40" t="n">
-        <v>3.47</v>
+        <v>3.43</v>
       </c>
       <c r="E40" t="n">
-        <v>3.47</v>
+        <v>3.42</v>
       </c>
       <c r="F40" t="n">
-        <v>237368.7452</v>
+        <v>231610.8184</v>
       </c>
       <c r="G40" t="n">
-        <v>3.407666666666667</v>
+        <v>-102583324.510181</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.03000000000000025</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1.130000000000002</v>
-      </c>
-      <c r="K40" t="n">
-        <v>42.85714285714249</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.451999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>3.425500000000001</v>
-      </c>
-      <c r="N40" t="n">
-        <v>3.405000000000001</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2314,49 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.46</v>
+        <v>3.43</v>
       </c>
       <c r="C41" t="n">
-        <v>3.46</v>
+        <v>3.43</v>
       </c>
       <c r="D41" t="n">
-        <v>3.46</v>
+        <v>3.43</v>
       </c>
       <c r="E41" t="n">
-        <v>3.46</v>
+        <v>3.43</v>
       </c>
       <c r="F41" t="n">
-        <v>50000</v>
+        <v>116332.5883</v>
       </c>
       <c r="G41" t="n">
-        <v>3.409500000000001</v>
+        <v>-102583324.510181</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1.140000000000002</v>
-      </c>
-      <c r="K41" t="n">
-        <v>24.99999999999958</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.453999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>3.433000000000001</v>
-      </c>
-      <c r="N41" t="n">
-        <v>3.406</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2365,49 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.47</v>
+        <v>3.41</v>
       </c>
       <c r="C42" t="n">
-        <v>3.47</v>
+        <v>3.4</v>
       </c>
       <c r="D42" t="n">
-        <v>3.47</v>
+        <v>3.41</v>
       </c>
       <c r="E42" t="n">
-        <v>3.47</v>
+        <v>3.4</v>
       </c>
       <c r="F42" t="n">
-        <v>150</v>
+        <v>211143.9336</v>
       </c>
       <c r="G42" t="n">
-        <v>3.411000000000001</v>
+        <v>-102794468.443781</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03000000000000025</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1.150000000000002</v>
-      </c>
-      <c r="K42" t="n">
-        <v>24.99999999999958</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.456999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>3.438</v>
-      </c>
-      <c r="N42" t="n">
-        <v>3.408333333333333</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2416,49 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="C43" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="D43" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="E43" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="F43" t="n">
-        <v>40000</v>
+        <v>32670</v>
       </c>
       <c r="G43" t="n">
-        <v>3.410666666666668</v>
+        <v>-102761798.443781</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1.160000000000002</v>
-      </c>
-      <c r="K43" t="n">
-        <v>24.99999999999958</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.457999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>3.4395</v>
-      </c>
-      <c r="N43" t="n">
-        <v>3.409666666666666</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2467,49 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="C44" t="n">
-        <v>3.46</v>
+        <v>3.32</v>
       </c>
       <c r="D44" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="E44" t="n">
-        <v>3.46</v>
+        <v>3.32</v>
       </c>
       <c r="F44" t="n">
-        <v>17431.9317</v>
+        <v>300000</v>
       </c>
       <c r="G44" t="n">
-        <v>3.410666666666668</v>
+        <v>-103061798.443781</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1.160000000000002</v>
-      </c>
-      <c r="K44" t="n">
-        <v>14.28571428571374</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>3.440999999999999</v>
-      </c>
-      <c r="N44" t="n">
-        <v>3.414333333333333</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2518,49 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3.45</v>
+        <v>3.32</v>
       </c>
       <c r="C45" t="n">
-        <v>3.42</v>
+        <v>3.31</v>
       </c>
       <c r="D45" t="n">
-        <v>3.45</v>
+        <v>3.32</v>
       </c>
       <c r="E45" t="n">
-        <v>3.42</v>
+        <v>3.31</v>
       </c>
       <c r="F45" t="n">
-        <v>197330.3097</v>
+        <v>80000</v>
       </c>
       <c r="G45" t="n">
-        <v>3.411666666666668</v>
+        <v>-103141798.443781</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1.200000000000002</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-19.99999999999982</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.456999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>3.440499999999999</v>
-      </c>
-      <c r="N45" t="n">
-        <v>3.418</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2569,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.45</v>
+        <v>3.38</v>
       </c>
       <c r="C46" t="n">
-        <v>3.44</v>
+        <v>3.38</v>
       </c>
       <c r="D46" t="n">
-        <v>3.45</v>
+        <v>3.38</v>
       </c>
       <c r="E46" t="n">
-        <v>3.44</v>
+        <v>3.38</v>
       </c>
       <c r="F46" t="n">
-        <v>121883.1088</v>
+        <v>153</v>
       </c>
       <c r="G46" t="n">
-        <v>3.413000000000001</v>
+        <v>-103141645.443781</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2592,26 +1996,10 @@
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>1.220000000000002</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-19.99999999999982</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.456999999999999</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>3.440499999999999</v>
-      </c>
-      <c r="N46" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2620,49 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.43</v>
+        <v>3.37</v>
       </c>
       <c r="C47" t="n">
-        <v>3.43</v>
+        <v>3.37</v>
       </c>
       <c r="D47" t="n">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="E47" t="n">
-        <v>3.39</v>
+        <v>3.37</v>
       </c>
       <c r="F47" t="n">
-        <v>650102.9577</v>
+        <v>22822.822</v>
       </c>
       <c r="G47" t="n">
-        <v>3.413833333333334</v>
+        <v>-103164468.265781</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.230000000000002</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-27.2727272727269</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.453999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>3.441499999999999</v>
-      </c>
-      <c r="N47" t="n">
-        <v>3.422</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,49 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.39</v>
+        <v>3.37</v>
       </c>
       <c r="C48" t="n">
-        <v>3.39</v>
+        <v>3.3</v>
       </c>
       <c r="D48" t="n">
-        <v>3.39</v>
+        <v>3.37</v>
       </c>
       <c r="E48" t="n">
-        <v>3.39</v>
+        <v>3.3</v>
       </c>
       <c r="F48" t="n">
-        <v>3140.6896</v>
+        <v>302253</v>
       </c>
       <c r="G48" t="n">
-        <v>3.414333333333333</v>
+        <v>-103466721.265781</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1.270000000000002</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-57.14285714285696</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.446999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>3.441999999999999</v>
-      </c>
-      <c r="N48" t="n">
-        <v>3.425</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2722,49 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.39</v>
+        <v>3.3</v>
       </c>
       <c r="C49" t="n">
-        <v>3.39</v>
+        <v>3.3</v>
       </c>
       <c r="D49" t="n">
-        <v>3.39</v>
+        <v>3.3</v>
       </c>
       <c r="E49" t="n">
-        <v>3.39</v>
+        <v>3.3</v>
       </c>
       <c r="F49" t="n">
-        <v>7010.1916</v>
+        <v>73880.0154</v>
       </c>
       <c r="G49" t="n">
-        <v>3.415833333333333</v>
+        <v>-103466721.265781</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1.270000000000002</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-57.14285714285696</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.438999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>3.441999999999999</v>
-      </c>
-      <c r="N49" t="n">
-        <v>3.428</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2773,49 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="C50" t="n">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="D50" t="n">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="E50" t="n">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="F50" t="n">
-        <v>294561.3535</v>
+        <v>20000</v>
       </c>
       <c r="G50" t="n">
-        <v>3.416166666666666</v>
+        <v>-103446721.265781</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1.270000000000002</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-53.84615384615359</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3.431</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>3.441499999999999</v>
-      </c>
-      <c r="N50" t="n">
-        <v>3.427333333333334</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2824,49 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.38</v>
+        <v>3.31</v>
       </c>
       <c r="C51" t="n">
-        <v>3.38</v>
+        <v>3.31</v>
       </c>
       <c r="D51" t="n">
-        <v>3.38</v>
+        <v>3.31</v>
       </c>
       <c r="E51" t="n">
-        <v>3.38</v>
+        <v>3.31</v>
       </c>
       <c r="F51" t="n">
-        <v>8653.626099999999</v>
+        <v>1000</v>
       </c>
       <c r="G51" t="n">
-        <v>3.416333333333333</v>
+        <v>-103447721.265781</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.06000000000000005</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1.280000000000002</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-69.23076923076928</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.423</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>3.438499999999999</v>
-      </c>
-      <c r="N51" t="n">
-        <v>3.429666666666667</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2875,49 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3.39</v>
+        <v>3.37</v>
       </c>
       <c r="C52" t="n">
-        <v>3.39</v>
+        <v>3.37</v>
       </c>
       <c r="D52" t="n">
-        <v>3.39</v>
+        <v>3.37</v>
       </c>
       <c r="E52" t="n">
-        <v>3.39</v>
+        <v>3.37</v>
       </c>
       <c r="F52" t="n">
-        <v>150</v>
+        <v>78842.822</v>
       </c>
       <c r="G52" t="n">
-        <v>3.416666666666666</v>
+        <v>-103368878.443781</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1.290000000000003</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-53.84615384615359</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.415</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>3.435999999999999</v>
-      </c>
-      <c r="N52" t="n">
-        <v>3.430333333333333</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2929,46 +2221,30 @@
         <v>3.41</v>
       </c>
       <c r="C53" t="n">
-        <v>3.41</v>
+        <v>3.43</v>
       </c>
       <c r="D53" t="n">
-        <v>3.41</v>
+        <v>3.43</v>
       </c>
       <c r="E53" t="n">
         <v>3.41</v>
       </c>
       <c r="F53" t="n">
-        <v>147</v>
+        <v>19523.5243</v>
       </c>
       <c r="G53" t="n">
-        <v>3.417166666666666</v>
+        <v>-103349354.919481</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.0299999999999998</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1.310000000000003</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-33.33333333333314</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>3.433999999999999</v>
-      </c>
-      <c r="N53" t="n">
-        <v>3.429666666666666</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2977,49 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="C54" t="n">
-        <v>3.36</v>
+        <v>3.43</v>
       </c>
       <c r="D54" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="E54" t="n">
-        <v>3.36</v>
+        <v>3.43</v>
       </c>
       <c r="F54" t="n">
-        <v>118684.3726</v>
+        <v>4132.9853</v>
       </c>
       <c r="G54" t="n">
-        <v>3.415833333333333</v>
+        <v>-103349354.919481</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1.360000000000003</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-37.49999999999989</v>
-      </c>
-      <c r="L54" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>3.429999999999999</v>
-      </c>
-      <c r="N54" t="n">
-        <v>3.427333333333332</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3028,49 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3.36</v>
+        <v>3.43</v>
       </c>
       <c r="C55" t="n">
-        <v>3.31</v>
+        <v>3.43</v>
       </c>
       <c r="D55" t="n">
-        <v>3.36</v>
+        <v>3.43</v>
       </c>
       <c r="E55" t="n">
-        <v>3.31</v>
+        <v>3.43</v>
       </c>
       <c r="F55" t="n">
-        <v>118684.3726</v>
+        <v>55693.2974</v>
       </c>
       <c r="G55" t="n">
-        <v>3.413666666666666</v>
+        <v>-103349354.919481</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1.410000000000003</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-68.42105263157875</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3.389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>3.422999999999999</v>
-      </c>
-      <c r="N55" t="n">
-        <v>3.423333333333332</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3079,49 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3.34</v>
+        <v>3.43</v>
       </c>
       <c r="C56" t="n">
-        <v>3.34</v>
+        <v>3.44</v>
       </c>
       <c r="D56" t="n">
-        <v>3.34</v>
+        <v>3.44</v>
       </c>
       <c r="E56" t="n">
-        <v>3.34</v>
+        <v>3.43</v>
       </c>
       <c r="F56" t="n">
-        <v>57800</v>
+        <v>163635.4143</v>
       </c>
       <c r="G56" t="n">
-        <v>3.411666666666666</v>
+        <v>-103185719.505181</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.1000000000000001</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1.440000000000003</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-42.85714285714292</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.379</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>3.417999999999999</v>
-      </c>
-      <c r="N56" t="n">
-        <v>3.419999999999999</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3130,49 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.36</v>
+        <v>3.41</v>
       </c>
       <c r="C57" t="n">
-        <v>3.36</v>
+        <v>3.41</v>
       </c>
       <c r="D57" t="n">
-        <v>3.36</v>
+        <v>3.41</v>
       </c>
       <c r="E57" t="n">
-        <v>3.36</v>
+        <v>3.38</v>
       </c>
       <c r="F57" t="n">
-        <v>8532.6466</v>
+        <v>35565.4508</v>
       </c>
       <c r="G57" t="n">
-        <v>3.410333333333333</v>
+        <v>-103221284.955981</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1.460000000000003</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-15.78947368421063</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3.372000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>3.412999999999999</v>
-      </c>
-      <c r="N57" t="n">
-        <v>3.418333333333333</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3181,49 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3.36</v>
+        <v>3.41</v>
       </c>
       <c r="C58" t="n">
-        <v>3.36</v>
+        <v>3.38</v>
       </c>
       <c r="D58" t="n">
-        <v>3.36</v>
+        <v>3.41</v>
       </c>
       <c r="E58" t="n">
-        <v>3.36</v>
+        <v>3.38</v>
       </c>
       <c r="F58" t="n">
-        <v>1594.1746</v>
+        <v>193133.2332</v>
       </c>
       <c r="G58" t="n">
-        <v>3.409166666666666</v>
+        <v>-103414418.189181</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J58" t="n">
-        <v>1.460000000000003</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-15.78947368421063</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3.369000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>3.408</v>
-      </c>
-      <c r="N58" t="n">
-        <v>3.417666666666666</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3232,7 +2428,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3.36</v>
+        <v>3.39</v>
       </c>
       <c r="C59" t="n">
         <v>3.39</v>
@@ -3241,40 +2437,24 @@
         <v>3.39</v>
       </c>
       <c r="E59" t="n">
-        <v>3.36</v>
+        <v>3.39</v>
       </c>
       <c r="F59" t="n">
-        <v>135126.821</v>
+        <v>48560</v>
       </c>
       <c r="G59" t="n">
-        <v>3.408499999999999</v>
+        <v>-103365858.189181</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1.490000000000003</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.369000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>3.404</v>
-      </c>
-      <c r="N59" t="n">
-        <v>3.417666666666666</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,49 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="C60" t="n">
-        <v>3.29</v>
+        <v>3.4</v>
       </c>
       <c r="D60" t="n">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="E60" t="n">
-        <v>3.29</v>
+        <v>3.4</v>
       </c>
       <c r="F60" t="n">
-        <v>594606.2328999999</v>
+        <v>20787.6385</v>
       </c>
       <c r="G60" t="n">
-        <v>3.406499999999999</v>
+        <v>-103345070.550681</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.1499999999999999</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1.590000000000003</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-29.03225806451604</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.359</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>3.395</v>
-      </c>
-      <c r="N60" t="n">
-        <v>3.414</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,49 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3.33</v>
+        <v>3.43</v>
       </c>
       <c r="C61" t="n">
-        <v>3.33</v>
+        <v>3.44</v>
       </c>
       <c r="D61" t="n">
-        <v>3.33</v>
+        <v>3.44</v>
       </c>
       <c r="E61" t="n">
-        <v>3.33</v>
+        <v>3.43</v>
       </c>
       <c r="F61" t="n">
-        <v>14531.4514</v>
+        <v>88960.56479999999</v>
       </c>
       <c r="G61" t="n">
-        <v>3.403999999999999</v>
+        <v>-103256109.985881</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.1099999999999999</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1.630000000000003</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-17.64705882352941</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.354</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>3.388500000000001</v>
-      </c>
-      <c r="N61" t="n">
-        <v>3.410333333333333</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3385,49 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3.32</v>
+        <v>3.44</v>
       </c>
       <c r="C62" t="n">
-        <v>3.33</v>
+        <v>3.44</v>
       </c>
       <c r="D62" t="n">
-        <v>3.33</v>
+        <v>3.44</v>
       </c>
       <c r="E62" t="n">
-        <v>3.32</v>
+        <v>3.44</v>
       </c>
       <c r="F62" t="n">
-        <v>351260.3788</v>
+        <v>182947.95</v>
       </c>
       <c r="G62" t="n">
-        <v>3.402166666666667</v>
+        <v>-103256109.985881</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.1099999999999999</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1.630000000000003</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.348</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>3.3815</v>
-      </c>
-      <c r="N62" t="n">
-        <v>3.406666666666666</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3436,49 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
       <c r="C63" t="n">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
       <c r="D63" t="n">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
       <c r="E63" t="n">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
       <c r="F63" t="n">
-        <v>1849.3134</v>
+        <v>150</v>
       </c>
       <c r="G63" t="n">
-        <v>3.4</v>
+        <v>-103255959.985881</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.1099999999999999</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1.630000000000003</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-11.11111111111104</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3.339999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>3.375000000000001</v>
-      </c>
-      <c r="N63" t="n">
-        <v>3.402666666666666</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3487,49 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="C64" t="n">
-        <v>3.35</v>
+        <v>3.44</v>
       </c>
       <c r="D64" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="E64" t="n">
-        <v>3.35</v>
+        <v>3.44</v>
       </c>
       <c r="F64" t="n">
-        <v>8277.507</v>
+        <v>12209.9635</v>
       </c>
       <c r="G64" t="n">
-        <v>3.398166666666667</v>
+        <v>-103268169.949381</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1.650000000000003</v>
-      </c>
-      <c r="K64" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L64" t="n">
-        <v>3.339</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>3.369500000000001</v>
-      </c>
-      <c r="N64" t="n">
-        <v>3.399666666666666</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3538,49 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.36</v>
+        <v>3.45</v>
       </c>
       <c r="C65" t="n">
-        <v>3.36</v>
+        <v>3.45</v>
       </c>
       <c r="D65" t="n">
-        <v>3.36</v>
+        <v>3.45</v>
       </c>
       <c r="E65" t="n">
-        <v>3.36</v>
+        <v>3.45</v>
       </c>
       <c r="F65" t="n">
-        <v>8277.507</v>
+        <v>74396.37300000001</v>
       </c>
       <c r="G65" t="n">
-        <v>3.3965</v>
+        <v>-103193773.576381</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1.660000000000003</v>
-      </c>
-      <c r="K65" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.343999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>3.366500000000001</v>
-      </c>
-      <c r="N65" t="n">
-        <v>3.396666666666666</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3589,49 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3.4</v>
+        <v>3.44</v>
       </c>
       <c r="C66" t="n">
-        <v>3.4</v>
+        <v>3.44</v>
       </c>
       <c r="D66" t="n">
-        <v>3.4</v>
+        <v>3.44</v>
       </c>
       <c r="E66" t="n">
-        <v>3.4</v>
+        <v>3.44</v>
       </c>
       <c r="F66" t="n">
-        <v>150</v>
+        <v>20000</v>
       </c>
       <c r="G66" t="n">
-        <v>3.397333333333334</v>
+        <v>-103213773.576381</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="K66" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.349999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>3.364500000000001</v>
-      </c>
-      <c r="N66" t="n">
-        <v>3.395333333333333</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3640,49 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="C67" t="n">
-        <v>3.4</v>
+        <v>3.46</v>
       </c>
       <c r="D67" t="n">
-        <v>3.4</v>
+        <v>3.46</v>
       </c>
       <c r="E67" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="F67" t="n">
-        <v>10674.2056</v>
+        <v>11023.5855</v>
       </c>
       <c r="G67" t="n">
-        <v>3.396666666666667</v>
+        <v>-103202749.990881</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1.700000000000003</v>
-      </c>
-      <c r="K67" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.353999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>3.363000000000001</v>
-      </c>
-      <c r="N67" t="n">
-        <v>3.393333333333333</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3691,49 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3.36</v>
+        <v>3.45</v>
       </c>
       <c r="C68" t="n">
-        <v>3.36</v>
+        <v>3.46</v>
       </c>
       <c r="D68" t="n">
-        <v>3.36</v>
+        <v>3.46</v>
       </c>
       <c r="E68" t="n">
-        <v>3.36</v>
+        <v>3.45</v>
       </c>
       <c r="F68" t="n">
-        <v>4124.0537</v>
+        <v>147126.5509676301</v>
       </c>
       <c r="G68" t="n">
-        <v>3.395666666666667</v>
+        <v>-103202749.990881</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1.740000000000003</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-12.0000000000001</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.353999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>3.361500000000001</v>
-      </c>
-      <c r="N68" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3742,49 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3.4</v>
+        <v>3.47</v>
       </c>
       <c r="C69" t="n">
-        <v>3.4</v>
+        <v>3.47</v>
       </c>
       <c r="D69" t="n">
-        <v>3.4</v>
+        <v>3.47</v>
       </c>
       <c r="E69" t="n">
-        <v>3.4</v>
+        <v>3.47</v>
       </c>
       <c r="F69" t="n">
-        <v>8800</v>
+        <v>150</v>
       </c>
       <c r="G69" t="n">
-        <v>3.395666666666667</v>
+        <v>-103202599.990881</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1.780000000000003</v>
-      </c>
-      <c r="K69" t="n">
-        <v>57.89473684210521</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.354999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>3.362000000000001</v>
-      </c>
-      <c r="N69" t="n">
-        <v>3.387666666666667</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3793,49 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.4</v>
+        <v>3.47</v>
       </c>
       <c r="C70" t="n">
-        <v>3.4</v>
+        <v>3.47</v>
       </c>
       <c r="D70" t="n">
-        <v>3.4</v>
+        <v>3.47</v>
       </c>
       <c r="E70" t="n">
-        <v>3.4</v>
+        <v>3.47</v>
       </c>
       <c r="F70" t="n">
-        <v>58007.507</v>
+        <v>237368.7452</v>
       </c>
       <c r="G70" t="n">
-        <v>3.395166666666667</v>
+        <v>-103202599.990881</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1.780000000000003</v>
-      </c>
-      <c r="K70" t="n">
-        <v>46.66666666666659</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.365999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>3.362500000000002</v>
-      </c>
-      <c r="N70" t="n">
-        <v>3.385333333333334</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3844,49 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3.41</v>
+        <v>3.46</v>
       </c>
       <c r="C71" t="n">
-        <v>3.41</v>
+        <v>3.46</v>
       </c>
       <c r="D71" t="n">
-        <v>3.41</v>
+        <v>3.46</v>
       </c>
       <c r="E71" t="n">
-        <v>3.41</v>
+        <v>3.46</v>
       </c>
       <c r="F71" t="n">
-        <v>359628.6669</v>
+        <v>50000</v>
       </c>
       <c r="G71" t="n">
-        <v>3.394833333333334</v>
+        <v>-103252599.990881</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.0299999999999998</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1.790000000000003</v>
-      </c>
-      <c r="K71" t="n">
-        <v>50</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.373999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>3.364000000000002</v>
-      </c>
-      <c r="N71" t="n">
-        <v>3.383666666666667</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3895,49 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.42</v>
+        <v>3.47</v>
       </c>
       <c r="C72" t="n">
-        <v>3.42</v>
+        <v>3.47</v>
       </c>
       <c r="D72" t="n">
-        <v>3.42</v>
+        <v>3.47</v>
       </c>
       <c r="E72" t="n">
-        <v>3.42</v>
+        <v>3.47</v>
       </c>
       <c r="F72" t="n">
-        <v>155200.3224</v>
+        <v>150</v>
       </c>
       <c r="G72" t="n">
-        <v>3.395166666666667</v>
+        <v>-103252449.990881</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1.800000000000003</v>
-      </c>
-      <c r="K72" t="n">
-        <v>52.94117647058817</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3.382999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>3.365500000000002</v>
-      </c>
-      <c r="N72" t="n">
-        <v>3.382000000000001</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3946,49 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3.43</v>
+        <v>3.46</v>
       </c>
       <c r="C73" t="n">
-        <v>3.41</v>
+        <v>3.46</v>
       </c>
       <c r="D73" t="n">
-        <v>3.43</v>
+        <v>3.46</v>
       </c>
       <c r="E73" t="n">
-        <v>3.41</v>
+        <v>3.46</v>
       </c>
       <c r="F73" t="n">
-        <v>706717.049</v>
+        <v>40000</v>
       </c>
       <c r="G73" t="n">
-        <v>3.395</v>
+        <v>-103292449.990881</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.0299999999999998</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1.810000000000003</v>
-      </c>
-      <c r="K73" t="n">
-        <v>37.50000000000011</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.390999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>3.365500000000002</v>
-      </c>
-      <c r="N73" t="n">
-        <v>3.380333333333334</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3997,49 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3.42</v>
+        <v>3.46</v>
       </c>
       <c r="C74" t="n">
-        <v>3.42</v>
+        <v>3.46</v>
       </c>
       <c r="D74" t="n">
-        <v>3.42</v>
+        <v>3.46</v>
       </c>
       <c r="E74" t="n">
-        <v>3.42</v>
+        <v>3.46</v>
       </c>
       <c r="F74" t="n">
-        <v>196150</v>
+        <v>17431.9317</v>
       </c>
       <c r="G74" t="n">
-        <v>3.396666666666667</v>
+        <v>-103292449.990881</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1.820000000000003</v>
-      </c>
-      <c r="K74" t="n">
-        <v>37.50000000000011</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.397999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>3.368500000000002</v>
-      </c>
-      <c r="N74" t="n">
-        <v>3.379000000000001</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,49 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="C75" t="n">
         <v>3.42</v>
       </c>
       <c r="D75" t="n">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="E75" t="n">
         <v>3.42</v>
       </c>
       <c r="F75" t="n">
-        <v>50000</v>
+        <v>197330.3097</v>
       </c>
       <c r="G75" t="n">
-        <v>3.3985</v>
+        <v>-103489780.300581</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1.820000000000003</v>
-      </c>
-      <c r="K75" t="n">
-        <v>16.66666666666673</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.403999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>3.374000000000001</v>
-      </c>
-      <c r="N75" t="n">
-        <v>3.379000000000001</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4099,49 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="C76" t="n">
-        <v>3.42</v>
+        <v>3.44</v>
       </c>
       <c r="D76" t="n">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="E76" t="n">
-        <v>3.42</v>
+        <v>3.44</v>
       </c>
       <c r="F76" t="n">
-        <v>3000</v>
+        <v>121883.1088</v>
       </c>
       <c r="G76" t="n">
-        <v>3.399166666666666</v>
+        <v>-103367897.191781</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.02000000000000002</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1.820000000000003</v>
-      </c>
-      <c r="K76" t="n">
-        <v>16.66666666666673</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3.405999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>3.378000000000001</v>
-      </c>
-      <c r="N76" t="n">
-        <v>3.378333333333335</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4150,49 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3.42</v>
+        <v>3.43</v>
       </c>
       <c r="C77" t="n">
         <v>3.43</v>
       </c>
       <c r="D77" t="n">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
       <c r="E77" t="n">
-        <v>3.42</v>
+        <v>3.39</v>
       </c>
       <c r="F77" t="n">
-        <v>451974.5097</v>
+        <v>650102.9577</v>
       </c>
       <c r="G77" t="n">
-        <v>3.400166666666666</v>
+        <v>-104018000.149481</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1.830000000000003</v>
-      </c>
-      <c r="K77" t="n">
-        <v>77.77777777777821</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.408999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>3.381500000000002</v>
-      </c>
-      <c r="N77" t="n">
-        <v>3.378333333333335</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4201,49 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3.42</v>
+        <v>3.39</v>
       </c>
       <c r="C78" t="n">
-        <v>3.43</v>
+        <v>3.39</v>
       </c>
       <c r="D78" t="n">
-        <v>3.43</v>
+        <v>3.39</v>
       </c>
       <c r="E78" t="n">
-        <v>3.42</v>
+        <v>3.39</v>
       </c>
       <c r="F78" t="n">
-        <v>212995.148</v>
+        <v>3140.6896</v>
       </c>
       <c r="G78" t="n">
-        <v>3.402333333333333</v>
+        <v>-104021140.839081</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1.830000000000003</v>
-      </c>
-      <c r="K78" t="n">
-        <v>60.00000000000071</v>
-      </c>
-      <c r="L78" t="n">
-        <v>3.415999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>3.385000000000002</v>
-      </c>
-      <c r="N78" t="n">
-        <v>3.379666666666668</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4252,49 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
       <c r="C79" t="n">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
       <c r="D79" t="n">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
       <c r="E79" t="n">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
       <c r="F79" t="n">
-        <v>9670</v>
+        <v>7010.1916</v>
       </c>
       <c r="G79" t="n">
-        <v>3.404833333333333</v>
+        <v>-104021140.839081</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0.01000000000000023</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1.850000000000003</v>
-      </c>
-      <c r="K79" t="n">
-        <v>71.42857142857197</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.420999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>3.388000000000003</v>
-      </c>
-      <c r="N79" t="n">
-        <v>3.381666666666668</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4303,49 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
       <c r="C80" t="n">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
       <c r="D80" t="n">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
       <c r="E80" t="n">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
       <c r="F80" t="n">
-        <v>9670</v>
+        <v>294561.3535</v>
       </c>
       <c r="G80" t="n">
-        <v>3.405499999999999</v>
+        <v>-104021140.839081</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0.01000000000000023</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1.850000000000003</v>
-      </c>
-      <c r="K80" t="n">
-        <v>66.66666666666717</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.426</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>3.396000000000002</v>
-      </c>
-      <c r="N80" t="n">
-        <v>3.383666666666668</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4354,49 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.46</v>
+        <v>3.38</v>
       </c>
       <c r="C81" t="n">
-        <v>3.46</v>
+        <v>3.38</v>
       </c>
       <c r="D81" t="n">
-        <v>3.46</v>
+        <v>3.38</v>
       </c>
       <c r="E81" t="n">
-        <v>3.46</v>
+        <v>3.38</v>
       </c>
       <c r="F81" t="n">
-        <v>128800.5362</v>
+        <v>8653.626099999999</v>
       </c>
       <c r="G81" t="n">
-        <v>3.407999999999999</v>
+        <v>-104029794.4651811</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1.860000000000003</v>
-      </c>
-      <c r="K81" t="n">
-        <v>66.66666666666717</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.431</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>3.402500000000002</v>
-      </c>
-      <c r="N81" t="n">
-        <v>3.386333333333335</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4405,49 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3.44</v>
+        <v>3.39</v>
       </c>
       <c r="C82" t="n">
-        <v>3.43</v>
+        <v>3.39</v>
       </c>
       <c r="D82" t="n">
-        <v>3.44</v>
+        <v>3.39</v>
       </c>
       <c r="E82" t="n">
-        <v>3.43</v>
+        <v>3.39</v>
       </c>
       <c r="F82" t="n">
-        <v>10000</v>
+        <v>150</v>
       </c>
       <c r="G82" t="n">
-        <v>3.408999999999999</v>
+        <v>-104029644.4651811</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1.890000000000002</v>
-      </c>
-      <c r="K82" t="n">
-        <v>25.00000000000014</v>
-      </c>
-      <c r="L82" t="n">
-        <v>3.432</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>3.407500000000002</v>
-      </c>
-      <c r="N82" t="n">
-        <v>3.387666666666668</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,49 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3.46</v>
+        <v>3.41</v>
       </c>
       <c r="C83" t="n">
-        <v>3.46</v>
+        <v>3.41</v>
       </c>
       <c r="D83" t="n">
-        <v>3.46</v>
+        <v>3.41</v>
       </c>
       <c r="E83" t="n">
-        <v>3.46</v>
+        <v>3.41</v>
       </c>
       <c r="F83" t="n">
-        <v>15704.6572</v>
+        <v>147</v>
       </c>
       <c r="G83" t="n">
-        <v>3.4095</v>
+        <v>-104029497.4651811</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1.920000000000002</v>
-      </c>
-      <c r="K83" t="n">
-        <v>40.00000000000018</v>
-      </c>
-      <c r="L83" t="n">
-        <v>3.437</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>3.414000000000002</v>
-      </c>
-      <c r="N83" t="n">
-        <v>3.389333333333335</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4507,49 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3.46</v>
+        <v>3.38</v>
       </c>
       <c r="C84" t="n">
-        <v>3.46</v>
+        <v>3.36</v>
       </c>
       <c r="D84" t="n">
-        <v>3.46</v>
+        <v>3.38</v>
       </c>
       <c r="E84" t="n">
-        <v>3.46</v>
+        <v>3.36</v>
       </c>
       <c r="F84" t="n">
-        <v>20000</v>
+        <v>118684.3726</v>
       </c>
       <c r="G84" t="n">
-        <v>3.409999999999999</v>
+        <v>-104148181.8377811</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1.920000000000002</v>
-      </c>
-      <c r="K84" t="n">
-        <v>40.00000000000018</v>
-      </c>
-      <c r="L84" t="n">
-        <v>3.441</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>3.419500000000002</v>
-      </c>
-      <c r="N84" t="n">
-        <v>3.392666666666668</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4558,49 +3338,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>3.47</v>
+        <v>3.36</v>
       </c>
       <c r="C85" t="n">
-        <v>3.47</v>
+        <v>3.31</v>
       </c>
       <c r="D85" t="n">
-        <v>3.47</v>
+        <v>3.36</v>
       </c>
       <c r="E85" t="n">
-        <v>3.47</v>
+        <v>3.31</v>
       </c>
       <c r="F85" t="n">
-        <v>170</v>
+        <v>118684.3726</v>
       </c>
       <c r="G85" t="n">
-        <v>3.410666666666666</v>
+        <v>-104266866.2103811</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>0.03000000000000025</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.930000000000002</v>
-      </c>
-      <c r="K85" t="n">
-        <v>45.45454545454574</v>
-      </c>
-      <c r="L85" t="n">
-        <v>3.446</v>
+        <v>3.36</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>3.425000000000002</v>
-      </c>
-      <c r="N85" t="n">
-        <v>3.398000000000001</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4609,49 +3379,798 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3.46</v>
+        <v>3.34</v>
       </c>
       <c r="C86" t="n">
-        <v>3.46</v>
+        <v>3.34</v>
       </c>
       <c r="D86" t="n">
-        <v>3.46</v>
+        <v>3.34</v>
       </c>
       <c r="E86" t="n">
-        <v>3.46</v>
+        <v>3.34</v>
       </c>
       <c r="F86" t="n">
-        <v>487.5011</v>
+        <v>57800</v>
       </c>
       <c r="G86" t="n">
-        <v>3.411</v>
+        <v>-104209066.2103811</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1.940000000000003</v>
-      </c>
-      <c r="K86" t="n">
-        <v>27.27272727272713</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.45</v>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>3.428000000000002</v>
-      </c>
-      <c r="N86" t="n">
-        <v>3.402000000000001</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D87" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="F87" t="n">
+        <v>8532.6466</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-104200533.5637811</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C88" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D88" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E88" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1594.1746</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-104200533.5637811</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C89" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="D89" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="F89" t="n">
+        <v>135126.821</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-104065406.7427811</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="D90" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="F90" t="n">
+        <v>594606.2328999999</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-104660012.9756811</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D91" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="F91" t="n">
+        <v>14531.4514</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-104645481.5242811</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D92" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="F92" t="n">
+        <v>351260.3788</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-104645481.5242811</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="C93" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D93" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1849.3134</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-104645481.5242811</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="C94" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="D94" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="E94" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F94" t="n">
+        <v>8277.507</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-104637204.0172811</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C95" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D95" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="F95" t="n">
+        <v>8277.507</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-104628926.5102811</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C96" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D96" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E96" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F96" t="n">
+        <v>150</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-104628776.5102811</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C97" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D97" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E97" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F97" t="n">
+        <v>10674.2056</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-104628776.5102811</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C98" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D98" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="F98" t="n">
+        <v>4124.0537</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-104632900.5639811</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C99" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D99" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E99" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F99" t="n">
+        <v>8800</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-104624100.5639811</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C100" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D100" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E100" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F100" t="n">
+        <v>58007.507</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-104624100.5639811</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="C101" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="D101" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="F101" t="n">
+        <v>359628.6669</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-104264471.8970811</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="C102" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="D102" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="E102" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F102" t="n">
+        <v>155200.3224</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-104109271.5746811</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="C103" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="D103" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="E103" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="F103" t="n">
+        <v>706717.049</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-104815988.6236811</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="C104" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="E104" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F104" t="n">
+        <v>196150</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-104619838.6236811</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="C105" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="D105" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="E105" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F105" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-104619838.6236811</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-13 BackTest DAC.xlsx
+++ b/BackTest/2019-11-13 BackTest DAC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:N105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -489,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -874,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1679,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2632,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2702,6 +2771,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2737,6 +2807,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2772,6 +2843,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2807,6 +2879,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2842,6 +2915,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2877,6 +2951,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2912,6 +2987,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2947,6 +3023,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2982,6 +3059,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3017,6 +3095,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3052,6 +3131,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3087,6 +3167,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3122,6 +3203,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3157,6 +3239,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3192,6 +3275,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3227,6 +3311,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3262,6 +3347,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3297,6 +3383,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3332,6 +3419,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3373,6 +3461,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3412,6 +3501,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3451,6 +3541,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3490,6 +3581,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3529,6 +3621,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3568,6 +3661,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3607,6 +3701,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3648,6 +3743,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3689,6 +3785,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3730,6 +3827,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3771,6 +3869,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3812,6 +3911,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3853,6 +3953,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3894,6 +3995,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3933,6 +4035,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3972,6 +4075,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4011,6 +4115,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4052,6 +4157,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4093,6 +4199,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4132,6 +4239,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4173,6 +4281,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-13 BackTest DAC.xlsx
+++ b/BackTest/2019-11-13 BackTest DAC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:N134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.41</v>
+        <v>3.55</v>
       </c>
       <c r="C2" t="n">
-        <v>3.41</v>
+        <v>3.56</v>
       </c>
       <c r="D2" t="n">
-        <v>3.41</v>
+        <v>3.56</v>
       </c>
       <c r="E2" t="n">
-        <v>3.41</v>
+        <v>3.55</v>
       </c>
       <c r="F2" t="n">
-        <v>95333.92290000001</v>
+        <v>103159.7302</v>
       </c>
       <c r="G2" t="n">
-        <v>-100118729.116481</v>
+        <v>-99314571.06098104</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.41</v>
+        <v>3.56</v>
       </c>
       <c r="C3" t="n">
-        <v>3.41</v>
+        <v>3.56</v>
       </c>
       <c r="D3" t="n">
-        <v>3.41</v>
+        <v>3.56</v>
       </c>
       <c r="E3" t="n">
-        <v>3.41</v>
+        <v>3.56</v>
       </c>
       <c r="F3" t="n">
-        <v>194324.9903</v>
+        <v>292.5803</v>
       </c>
       <c r="G3" t="n">
-        <v>-100118729.116481</v>
+        <v>-99314571.06098104</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.52</v>
+        <v>3.55</v>
       </c>
       <c r="C4" t="n">
-        <v>3.43</v>
+        <v>3.55</v>
       </c>
       <c r="D4" t="n">
-        <v>3.52</v>
+        <v>3.55</v>
       </c>
       <c r="E4" t="n">
-        <v>3.43</v>
+        <v>3.55</v>
       </c>
       <c r="F4" t="n">
-        <v>98581.52250000001</v>
+        <v>50180.7527</v>
       </c>
       <c r="G4" t="n">
-        <v>-100020147.593981</v>
+        <v>-99364751.81368104</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.51</v>
+        <v>3.52</v>
       </c>
       <c r="C5" t="n">
-        <v>3.51</v>
+        <v>3.53</v>
       </c>
       <c r="D5" t="n">
-        <v>3.51</v>
+        <v>3.53</v>
       </c>
       <c r="E5" t="n">
-        <v>3.51</v>
+        <v>3.52</v>
       </c>
       <c r="F5" t="n">
-        <v>150</v>
+        <v>33378.2701</v>
       </c>
       <c r="G5" t="n">
-        <v>-100019997.593981</v>
+        <v>-99398130.08378103</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.51</v>
+        <v>3.52</v>
       </c>
       <c r="C6" t="n">
         <v>3.51</v>
       </c>
       <c r="D6" t="n">
-        <v>3.51</v>
+        <v>3.52</v>
       </c>
       <c r="E6" t="n">
         <v>3.51</v>
       </c>
       <c r="F6" t="n">
-        <v>630.5319</v>
+        <v>16925</v>
       </c>
       <c r="G6" t="n">
-        <v>-100019997.593981</v>
+        <v>-99415055.08378103</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.42</v>
+        <v>3.52</v>
       </c>
       <c r="C7" t="n">
-        <v>3.33</v>
+        <v>3.51</v>
       </c>
       <c r="D7" t="n">
-        <v>3.42</v>
+        <v>3.52</v>
       </c>
       <c r="E7" t="n">
-        <v>3.33</v>
+        <v>3.51</v>
       </c>
       <c r="F7" t="n">
-        <v>282940.2147</v>
+        <v>153190.4829</v>
       </c>
       <c r="G7" t="n">
-        <v>-100302937.808681</v>
+        <v>-99415055.08378103</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.34</v>
+        <v>3.51</v>
       </c>
       <c r="C8" t="n">
-        <v>3.34</v>
+        <v>3.51</v>
       </c>
       <c r="D8" t="n">
-        <v>3.34</v>
+        <v>3.51</v>
       </c>
       <c r="E8" t="n">
-        <v>3.34</v>
+        <v>3.51</v>
       </c>
       <c r="F8" t="n">
-        <v>865.237</v>
+        <v>118634.6738</v>
       </c>
       <c r="G8" t="n">
-        <v>-100302072.571681</v>
+        <v>-99415055.08378103</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.34</v>
+        <v>3.51</v>
       </c>
       <c r="C9" t="n">
-        <v>3.35</v>
+        <v>3.52</v>
       </c>
       <c r="D9" t="n">
-        <v>3.35</v>
+        <v>3.52</v>
       </c>
       <c r="E9" t="n">
-        <v>3.34</v>
+        <v>3.43</v>
       </c>
       <c r="F9" t="n">
-        <v>55465.2789</v>
+        <v>117603.1637</v>
       </c>
       <c r="G9" t="n">
-        <v>-100246607.292781</v>
+        <v>-99297451.92008103</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.35</v>
+        <v>3.44</v>
       </c>
       <c r="C10" t="n">
-        <v>3.35</v>
+        <v>3.44</v>
       </c>
       <c r="D10" t="n">
-        <v>3.35</v>
+        <v>3.44</v>
       </c>
       <c r="E10" t="n">
-        <v>3.35</v>
+        <v>3.44</v>
       </c>
       <c r="F10" t="n">
-        <v>29619.2083</v>
+        <v>380.3526</v>
       </c>
       <c r="G10" t="n">
-        <v>-100246607.292781</v>
+        <v>-99297832.27268103</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.35</v>
+        <v>3.44</v>
       </c>
       <c r="C11" t="n">
-        <v>3.35</v>
+        <v>3.47</v>
       </c>
       <c r="D11" t="n">
-        <v>3.35</v>
+        <v>3.47</v>
       </c>
       <c r="E11" t="n">
-        <v>3.35</v>
+        <v>3.44</v>
       </c>
       <c r="F11" t="n">
-        <v>373136.5762</v>
+        <v>33868.8635</v>
       </c>
       <c r="G11" t="n">
-        <v>-100246607.292781</v>
+        <v>-99263963.40918103</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.42</v>
+        <v>3.47</v>
       </c>
       <c r="C12" t="n">
-        <v>3.38</v>
+        <v>3.47</v>
       </c>
       <c r="D12" t="n">
-        <v>3.42</v>
+        <v>3.47</v>
       </c>
       <c r="E12" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="F12" t="n">
-        <v>60000</v>
+        <v>144249.216</v>
       </c>
       <c r="G12" t="n">
-        <v>-100186607.292781</v>
+        <v>-99263963.40918103</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.48</v>
+        <v>3.46</v>
       </c>
       <c r="C13" t="n">
-        <v>3.48</v>
+        <v>3.52</v>
       </c>
       <c r="D13" t="n">
-        <v>3.48</v>
+        <v>3.52</v>
       </c>
       <c r="E13" t="n">
-        <v>3.48</v>
+        <v>3.44</v>
       </c>
       <c r="F13" t="n">
-        <v>147</v>
+        <v>166575.9328</v>
       </c>
       <c r="G13" t="n">
-        <v>-100186460.292781</v>
+        <v>-99097387.47638103</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.46</v>
+        <v>3.45</v>
       </c>
       <c r="C14" t="n">
-        <v>3.46</v>
+        <v>3.44</v>
       </c>
       <c r="D14" t="n">
-        <v>3.46</v>
+        <v>3.45</v>
       </c>
       <c r="E14" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="F14" t="n">
-        <v>150</v>
+        <v>607427.3569</v>
       </c>
       <c r="G14" t="n">
-        <v>-100186610.292781</v>
+        <v>-99704814.83328104</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.38</v>
+        <v>3.46</v>
       </c>
       <c r="C15" t="n">
-        <v>3.36</v>
+        <v>3.46</v>
       </c>
       <c r="D15" t="n">
-        <v>3.38</v>
+        <v>3.46</v>
       </c>
       <c r="E15" t="n">
-        <v>3.36</v>
+        <v>3.46</v>
       </c>
       <c r="F15" t="n">
-        <v>52372.1495</v>
+        <v>13400</v>
       </c>
       <c r="G15" t="n">
-        <v>-100238982.442281</v>
+        <v>-99691414.83328104</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.36</v>
+        <v>3.47</v>
       </c>
       <c r="C16" t="n">
-        <v>3.36</v>
+        <v>3.46</v>
       </c>
       <c r="D16" t="n">
-        <v>3.36</v>
+        <v>3.47</v>
       </c>
       <c r="E16" t="n">
-        <v>3.36</v>
+        <v>3.46</v>
       </c>
       <c r="F16" t="n">
-        <v>15110</v>
+        <v>209978.093</v>
       </c>
       <c r="G16" t="n">
-        <v>-100238982.442281</v>
+        <v>-99691414.83328104</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.38</v>
+        <v>3.46</v>
       </c>
       <c r="C17" t="n">
-        <v>3.38</v>
+        <v>3.46</v>
       </c>
       <c r="D17" t="n">
-        <v>3.38</v>
+        <v>3.46</v>
       </c>
       <c r="E17" t="n">
-        <v>3.38</v>
+        <v>3.46</v>
       </c>
       <c r="F17" t="n">
-        <v>149</v>
+        <v>216954.8753</v>
       </c>
       <c r="G17" t="n">
-        <v>-100238833.442281</v>
+        <v>-99691414.83328104</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.36</v>
+        <v>3.5</v>
       </c>
       <c r="C18" t="n">
-        <v>3.36</v>
+        <v>3.5</v>
       </c>
       <c r="D18" t="n">
-        <v>3.36</v>
+        <v>3.5</v>
       </c>
       <c r="E18" t="n">
-        <v>3.36</v>
+        <v>3.5</v>
       </c>
       <c r="F18" t="n">
-        <v>4890</v>
+        <v>145</v>
       </c>
       <c r="G18" t="n">
-        <v>-100243723.442281</v>
+        <v>-99691269.83328104</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.36</v>
+        <v>3.46</v>
       </c>
       <c r="C19" t="n">
-        <v>3.3</v>
+        <v>3.46</v>
       </c>
       <c r="D19" t="n">
-        <v>3.36</v>
+        <v>3.46</v>
       </c>
       <c r="E19" t="n">
-        <v>3.3</v>
+        <v>3.46</v>
       </c>
       <c r="F19" t="n">
-        <v>809143.0307</v>
+        <v>10640.1914</v>
       </c>
       <c r="G19" t="n">
-        <v>-101052866.472981</v>
+        <v>-99701910.02468105</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.37</v>
+        <v>3.42</v>
       </c>
       <c r="C20" t="n">
-        <v>3.37</v>
+        <v>3.42</v>
       </c>
       <c r="D20" t="n">
-        <v>3.37</v>
+        <v>3.42</v>
       </c>
       <c r="E20" t="n">
-        <v>3.37</v>
+        <v>3.42</v>
       </c>
       <c r="F20" t="n">
-        <v>150</v>
+        <v>133896.0352</v>
       </c>
       <c r="G20" t="n">
-        <v>-101052716.472981</v>
+        <v>-99835806.05988105</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,32 +1122,38 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.37</v>
+        <v>3.42</v>
       </c>
       <c r="C21" t="n">
-        <v>3.37</v>
+        <v>3.41</v>
       </c>
       <c r="D21" t="n">
-        <v>3.37</v>
+        <v>3.42</v>
       </c>
       <c r="E21" t="n">
-        <v>3.37</v>
+        <v>3.41</v>
       </c>
       <c r="F21" t="n">
-        <v>138869.0602</v>
+        <v>69418.64870000001</v>
       </c>
       <c r="G21" t="n">
-        <v>-101052716.472981</v>
+        <v>-99905224.70858105</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>3.42</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,32 +1164,38 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.37</v>
+        <v>3.5</v>
       </c>
       <c r="C22" t="n">
-        <v>3.37</v>
+        <v>3.5</v>
       </c>
       <c r="D22" t="n">
-        <v>3.37</v>
+        <v>3.5</v>
       </c>
       <c r="E22" t="n">
-        <v>3.37</v>
+        <v>3.5</v>
       </c>
       <c r="F22" t="n">
-        <v>100000</v>
+        <v>143</v>
       </c>
       <c r="G22" t="n">
-        <v>-101052716.472981</v>
+        <v>-99905081.70858105</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>3.41</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,32 +1206,36 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="C23" t="n">
-        <v>3.38</v>
+        <v>3.42</v>
       </c>
       <c r="D23" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="E23" t="n">
-        <v>3.38</v>
+        <v>3.42</v>
       </c>
       <c r="F23" t="n">
-        <v>47441.6295</v>
+        <v>44865.5579</v>
       </c>
       <c r="G23" t="n">
-        <v>-101005274.843481</v>
+        <v>-99949947.26648104</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1246,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.44</v>
+        <v>3.42</v>
       </c>
       <c r="C24" t="n">
-        <v>3.44</v>
+        <v>3.42</v>
       </c>
       <c r="D24" t="n">
-        <v>3.44</v>
+        <v>3.42</v>
       </c>
       <c r="E24" t="n">
-        <v>3.44</v>
+        <v>3.42</v>
       </c>
       <c r="F24" t="n">
-        <v>146</v>
+        <v>16356.643</v>
       </c>
       <c r="G24" t="n">
-        <v>-101005128.843481</v>
+        <v>-99949947.26648104</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1255,7 +1271,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.44</v>
+        <v>3.42</v>
       </c>
       <c r="C25" t="n">
-        <v>3.44</v>
+        <v>3.42</v>
       </c>
       <c r="D25" t="n">
-        <v>3.44</v>
+        <v>3.42</v>
       </c>
       <c r="E25" t="n">
-        <v>3.44</v>
+        <v>3.42</v>
       </c>
       <c r="F25" t="n">
-        <v>371051.86</v>
+        <v>4543.4335</v>
       </c>
       <c r="G25" t="n">
-        <v>-101005128.843481</v>
+        <v>-99949947.26648104</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1291,7 +1311,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1326,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.44</v>
+        <v>3.42</v>
       </c>
       <c r="C26" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="D26" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="E26" t="n">
-        <v>3.44</v>
+        <v>3.42</v>
       </c>
       <c r="F26" t="n">
-        <v>211526.1769</v>
+        <v>30000</v>
       </c>
       <c r="G26" t="n">
-        <v>-100793602.666581</v>
+        <v>-99949947.26648104</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1327,7 +1351,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,32 +1366,38 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="C27" t="n">
-        <v>3.44</v>
+        <v>3.41</v>
       </c>
       <c r="D27" t="n">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="E27" t="n">
-        <v>3.44</v>
+        <v>3.41</v>
       </c>
       <c r="F27" t="n">
-        <v>105397.8642</v>
+        <v>80000</v>
       </c>
       <c r="G27" t="n">
-        <v>-100899000.530781</v>
+        <v>-100029947.266481</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>3.42</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,32 +1408,38 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.43</v>
+        <v>3.41</v>
       </c>
       <c r="C28" t="n">
-        <v>3.43</v>
+        <v>3.4</v>
       </c>
       <c r="D28" t="n">
-        <v>3.43</v>
+        <v>3.41</v>
       </c>
       <c r="E28" t="n">
-        <v>3.43</v>
+        <v>3.4</v>
       </c>
       <c r="F28" t="n">
-        <v>68629.4467</v>
+        <v>91669.36</v>
       </c>
       <c r="G28" t="n">
-        <v>-100967629.977481</v>
+        <v>-100121616.626481</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>3.41</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1413,29 +1453,35 @@
         <v>3.41</v>
       </c>
       <c r="C29" t="n">
-        <v>3.43</v>
+        <v>3.41</v>
       </c>
       <c r="D29" t="n">
-        <v>3.43</v>
+        <v>3.41</v>
       </c>
       <c r="E29" t="n">
         <v>3.41</v>
       </c>
       <c r="F29" t="n">
-        <v>141640</v>
+        <v>2887.51</v>
       </c>
       <c r="G29" t="n">
-        <v>-100967629.977481</v>
+        <v>-100118729.116481</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>3.4</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1458,20 +1504,26 @@
         <v>3.41</v>
       </c>
       <c r="F30" t="n">
-        <v>23641.791</v>
+        <v>90653.91</v>
       </c>
       <c r="G30" t="n">
-        <v>-100991271.768481</v>
+        <v>-100118729.116481</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>3.41</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,32 +1534,38 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.48</v>
+        <v>3.41</v>
       </c>
       <c r="C31" t="n">
-        <v>3.48</v>
+        <v>3.41</v>
       </c>
       <c r="D31" t="n">
-        <v>3.48</v>
+        <v>3.41</v>
       </c>
       <c r="E31" t="n">
-        <v>3.48</v>
+        <v>3.41</v>
       </c>
       <c r="F31" t="n">
-        <v>144</v>
+        <v>95333.92290000001</v>
       </c>
       <c r="G31" t="n">
-        <v>-100991127.768481</v>
+        <v>-100118729.116481</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>3.41</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,32 +1576,38 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.44</v>
+        <v>3.41</v>
       </c>
       <c r="C32" t="n">
-        <v>3.44</v>
+        <v>3.41</v>
       </c>
       <c r="D32" t="n">
-        <v>3.44</v>
+        <v>3.41</v>
       </c>
       <c r="E32" t="n">
-        <v>3.44</v>
+        <v>3.41</v>
       </c>
       <c r="F32" t="n">
-        <v>68337.5601</v>
+        <v>194324.9903</v>
       </c>
       <c r="G32" t="n">
-        <v>-101059465.328581</v>
+        <v>-100118729.116481</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>3.41</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,32 +1618,38 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.46</v>
+        <v>3.52</v>
       </c>
       <c r="C33" t="n">
-        <v>3.46</v>
+        <v>3.43</v>
       </c>
       <c r="D33" t="n">
-        <v>3.46</v>
+        <v>3.52</v>
       </c>
       <c r="E33" t="n">
-        <v>3.46</v>
+        <v>3.43</v>
       </c>
       <c r="F33" t="n">
-        <v>64380</v>
+        <v>98581.52250000001</v>
       </c>
       <c r="G33" t="n">
-        <v>-100995085.328581</v>
+        <v>-100020147.593981</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>3.41</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,32 +1660,38 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.46</v>
+        <v>3.51</v>
       </c>
       <c r="C34" t="n">
-        <v>3.46</v>
+        <v>3.51</v>
       </c>
       <c r="D34" t="n">
-        <v>3.46</v>
+        <v>3.51</v>
       </c>
       <c r="E34" t="n">
-        <v>3.46</v>
+        <v>3.51</v>
       </c>
       <c r="F34" t="n">
-        <v>6120.79</v>
+        <v>150</v>
       </c>
       <c r="G34" t="n">
-        <v>-100995085.328581</v>
+        <v>-100019997.593981</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>3.43</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1702,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.46</v>
+        <v>3.51</v>
       </c>
       <c r="C35" t="n">
-        <v>3.46</v>
+        <v>3.51</v>
       </c>
       <c r="D35" t="n">
-        <v>3.46</v>
+        <v>3.51</v>
       </c>
       <c r="E35" t="n">
-        <v>3.46</v>
+        <v>3.51</v>
       </c>
       <c r="F35" t="n">
-        <v>184.2013</v>
+        <v>630.5319</v>
       </c>
       <c r="G35" t="n">
-        <v>-100995085.328581</v>
+        <v>-100019997.593981</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1651,7 +1727,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,22 +1742,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="C36" t="n">
-        <v>3.35</v>
+        <v>3.33</v>
       </c>
       <c r="D36" t="n">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="E36" t="n">
-        <v>3.29</v>
+        <v>3.33</v>
       </c>
       <c r="F36" t="n">
-        <v>1780000</v>
+        <v>282940.2147</v>
       </c>
       <c r="G36" t="n">
-        <v>-102775085.328581</v>
+        <v>-100302937.808681</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1687,7 +1767,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,32 +1782,38 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.44</v>
+        <v>3.34</v>
       </c>
       <c r="C37" t="n">
-        <v>3.44</v>
+        <v>3.34</v>
       </c>
       <c r="D37" t="n">
-        <v>3.44</v>
+        <v>3.34</v>
       </c>
       <c r="E37" t="n">
-        <v>3.44</v>
+        <v>3.34</v>
       </c>
       <c r="F37" t="n">
-        <v>150</v>
+        <v>865.237</v>
       </c>
       <c r="G37" t="n">
-        <v>-102774935.328581</v>
+        <v>-100302072.571681</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.33</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,32 +1824,38 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C38" t="n">
         <v>3.35</v>
       </c>
-      <c r="C38" t="n">
-        <v>3.42</v>
-      </c>
       <c r="D38" t="n">
-        <v>3.42</v>
+        <v>3.35</v>
       </c>
       <c r="E38" t="n">
-        <v>3.35</v>
+        <v>3.34</v>
       </c>
       <c r="F38" t="n">
-        <v>20000</v>
+        <v>55465.2789</v>
       </c>
       <c r="G38" t="n">
-        <v>-102794935.328581</v>
+        <v>-100246607.292781</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>3.34</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,32 +1866,38 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.33</v>
+        <v>3.35</v>
       </c>
       <c r="C39" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="D39" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="E39" t="n">
-        <v>3.33</v>
+        <v>3.35</v>
       </c>
       <c r="F39" t="n">
-        <v>20000</v>
+        <v>29619.2083</v>
       </c>
       <c r="G39" t="n">
-        <v>-102814935.328581</v>
+        <v>-100246607.292781</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>3.35</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,32 +1908,38 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.42</v>
+        <v>3.35</v>
       </c>
       <c r="C40" t="n">
-        <v>3.43</v>
+        <v>3.35</v>
       </c>
       <c r="D40" t="n">
-        <v>3.43</v>
+        <v>3.35</v>
       </c>
       <c r="E40" t="n">
-        <v>3.42</v>
+        <v>3.35</v>
       </c>
       <c r="F40" t="n">
-        <v>231610.8184</v>
+        <v>373136.5762</v>
       </c>
       <c r="G40" t="n">
-        <v>-102583324.510181</v>
+        <v>-100246607.292781</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>3.35</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,32 +1950,38 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.43</v>
+        <v>3.42</v>
       </c>
       <c r="C41" t="n">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="D41" t="n">
-        <v>3.43</v>
+        <v>3.42</v>
       </c>
       <c r="E41" t="n">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="F41" t="n">
-        <v>116332.5883</v>
+        <v>60000</v>
       </c>
       <c r="G41" t="n">
-        <v>-102583324.510181</v>
+        <v>-100186607.292781</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>3.35</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,32 +1992,38 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.41</v>
+        <v>3.48</v>
       </c>
       <c r="C42" t="n">
-        <v>3.4</v>
+        <v>3.48</v>
       </c>
       <c r="D42" t="n">
-        <v>3.41</v>
+        <v>3.48</v>
       </c>
       <c r="E42" t="n">
-        <v>3.4</v>
+        <v>3.48</v>
       </c>
       <c r="F42" t="n">
-        <v>211143.9336</v>
+        <v>147</v>
       </c>
       <c r="G42" t="n">
-        <v>-102794468.443781</v>
+        <v>-100186460.292781</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>3.38</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,22 +2034,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.42</v>
+        <v>3.46</v>
       </c>
       <c r="C43" t="n">
-        <v>3.42</v>
+        <v>3.46</v>
       </c>
       <c r="D43" t="n">
-        <v>3.42</v>
+        <v>3.46</v>
       </c>
       <c r="E43" t="n">
-        <v>3.42</v>
+        <v>3.46</v>
       </c>
       <c r="F43" t="n">
-        <v>32670</v>
+        <v>150</v>
       </c>
       <c r="G43" t="n">
-        <v>-102761798.443781</v>
+        <v>-100186610.292781</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1939,7 +2059,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,22 +2074,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.42</v>
+        <v>3.38</v>
       </c>
       <c r="C44" t="n">
-        <v>3.32</v>
+        <v>3.36</v>
       </c>
       <c r="D44" t="n">
-        <v>3.42</v>
+        <v>3.38</v>
       </c>
       <c r="E44" t="n">
-        <v>3.32</v>
+        <v>3.36</v>
       </c>
       <c r="F44" t="n">
-        <v>300000</v>
+        <v>52372.1495</v>
       </c>
       <c r="G44" t="n">
-        <v>-103061798.443781</v>
+        <v>-100238982.442281</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1975,7 +2099,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,22 +2114,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3.32</v>
+        <v>3.36</v>
       </c>
       <c r="C45" t="n">
-        <v>3.31</v>
+        <v>3.36</v>
       </c>
       <c r="D45" t="n">
-        <v>3.32</v>
+        <v>3.36</v>
       </c>
       <c r="E45" t="n">
-        <v>3.31</v>
+        <v>3.36</v>
       </c>
       <c r="F45" t="n">
-        <v>80000</v>
+        <v>15110</v>
       </c>
       <c r="G45" t="n">
-        <v>-103141798.443781</v>
+        <v>-100238982.442281</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2011,7 +2139,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2034,10 +2166,10 @@
         <v>3.38</v>
       </c>
       <c r="F46" t="n">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G46" t="n">
-        <v>-103141645.443781</v>
+        <v>-100238833.442281</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2047,7 +2179,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,22 +2194,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.37</v>
+        <v>3.36</v>
       </c>
       <c r="C47" t="n">
-        <v>3.37</v>
+        <v>3.36</v>
       </c>
       <c r="D47" t="n">
-        <v>3.37</v>
+        <v>3.36</v>
       </c>
       <c r="E47" t="n">
-        <v>3.37</v>
+        <v>3.36</v>
       </c>
       <c r="F47" t="n">
-        <v>22822.822</v>
+        <v>4890</v>
       </c>
       <c r="G47" t="n">
-        <v>-103164468.265781</v>
+        <v>-100243723.442281</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2083,7 +2219,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,22 +2234,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.37</v>
+        <v>3.36</v>
       </c>
       <c r="C48" t="n">
         <v>3.3</v>
       </c>
       <c r="D48" t="n">
-        <v>3.37</v>
+        <v>3.36</v>
       </c>
       <c r="E48" t="n">
         <v>3.3</v>
       </c>
       <c r="F48" t="n">
-        <v>302253</v>
+        <v>809143.0307</v>
       </c>
       <c r="G48" t="n">
-        <v>-103466721.265781</v>
+        <v>-101052866.472981</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2119,7 +2259,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,32 +2274,38 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="C49" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="F49" t="n">
+        <v>150</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-101052716.472981</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
         <v>3.3</v>
       </c>
-      <c r="C49" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D49" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="E49" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="F49" t="n">
-        <v>73880.0154</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-103466721.265781</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2166,22 +2316,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.41</v>
+        <v>3.37</v>
       </c>
       <c r="C50" t="n">
-        <v>3.41</v>
+        <v>3.37</v>
       </c>
       <c r="D50" t="n">
-        <v>3.41</v>
+        <v>3.37</v>
       </c>
       <c r="E50" t="n">
-        <v>3.41</v>
+        <v>3.37</v>
       </c>
       <c r="F50" t="n">
-        <v>20000</v>
+        <v>138869.0602</v>
       </c>
       <c r="G50" t="n">
-        <v>-103446721.265781</v>
+        <v>-101052716.472981</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2191,7 +2341,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2202,22 +2356,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.31</v>
+        <v>3.37</v>
       </c>
       <c r="C51" t="n">
-        <v>3.31</v>
+        <v>3.37</v>
       </c>
       <c r="D51" t="n">
-        <v>3.31</v>
+        <v>3.37</v>
       </c>
       <c r="E51" t="n">
-        <v>3.31</v>
+        <v>3.37</v>
       </c>
       <c r="F51" t="n">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="G51" t="n">
-        <v>-103447721.265781</v>
+        <v>-101052716.472981</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2227,7 +2381,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2238,22 +2396,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3.37</v>
+        <v>3.38</v>
       </c>
       <c r="C52" t="n">
-        <v>3.37</v>
+        <v>3.38</v>
       </c>
       <c r="D52" t="n">
-        <v>3.37</v>
+        <v>3.38</v>
       </c>
       <c r="E52" t="n">
-        <v>3.37</v>
+        <v>3.38</v>
       </c>
       <c r="F52" t="n">
-        <v>78842.822</v>
+        <v>47441.6295</v>
       </c>
       <c r="G52" t="n">
-        <v>-103368878.443781</v>
+        <v>-101005274.843481</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2263,7 +2421,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2274,22 +2436,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.41</v>
+        <v>3.44</v>
       </c>
       <c r="C53" t="n">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
       <c r="D53" t="n">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
       <c r="E53" t="n">
-        <v>3.41</v>
+        <v>3.44</v>
       </c>
       <c r="F53" t="n">
-        <v>19523.5243</v>
+        <v>146</v>
       </c>
       <c r="G53" t="n">
-        <v>-103349354.919481</v>
+        <v>-101005128.843481</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2299,7 +2461,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2310,22 +2476,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
       <c r="C54" t="n">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
       <c r="D54" t="n">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
       <c r="E54" t="n">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
       <c r="F54" t="n">
-        <v>4132.9853</v>
+        <v>371051.86</v>
       </c>
       <c r="G54" t="n">
-        <v>-103349354.919481</v>
+        <v>-101005128.843481</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2335,7 +2501,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2346,22 +2516,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
       <c r="C55" t="n">
-        <v>3.43</v>
+        <v>3.46</v>
       </c>
       <c r="D55" t="n">
-        <v>3.43</v>
+        <v>3.46</v>
       </c>
       <c r="E55" t="n">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
       <c r="F55" t="n">
-        <v>55693.2974</v>
+        <v>211526.1769</v>
       </c>
       <c r="G55" t="n">
-        <v>-103349354.919481</v>
+        <v>-100793602.666581</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2371,7 +2541,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2382,22 +2556,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3.43</v>
+        <v>3.45</v>
       </c>
       <c r="C56" t="n">
         <v>3.44</v>
       </c>
       <c r="D56" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="E56" t="n">
         <v>3.44</v>
       </c>
-      <c r="E56" t="n">
-        <v>3.43</v>
-      </c>
       <c r="F56" t="n">
-        <v>163635.4143</v>
+        <v>105397.8642</v>
       </c>
       <c r="G56" t="n">
-        <v>-103185719.505181</v>
+        <v>-100899000.530781</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2407,7 +2581,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2418,22 +2596,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.41</v>
+        <v>3.43</v>
       </c>
       <c r="C57" t="n">
-        <v>3.41</v>
+        <v>3.43</v>
       </c>
       <c r="D57" t="n">
-        <v>3.41</v>
+        <v>3.43</v>
       </c>
       <c r="E57" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="F57" t="n">
-        <v>35565.4508</v>
+        <v>68629.4467</v>
       </c>
       <c r="G57" t="n">
-        <v>-103221284.955981</v>
+        <v>-100967629.977481</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2443,7 +2621,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2457,19 +2639,19 @@
         <v>3.41</v>
       </c>
       <c r="C58" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="D58" t="n">
-        <v>3.41</v>
+        <v>3.43</v>
       </c>
       <c r="E58" t="n">
-        <v>3.38</v>
+        <v>3.41</v>
       </c>
       <c r="F58" t="n">
-        <v>193133.2332</v>
+        <v>141640</v>
       </c>
       <c r="G58" t="n">
-        <v>-103414418.189181</v>
+        <v>-100967629.977481</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2479,7 +2661,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2490,22 +2676,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="C59" t="n">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="D59" t="n">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="E59" t="n">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="F59" t="n">
-        <v>48560</v>
+        <v>23641.791</v>
       </c>
       <c r="G59" t="n">
-        <v>-103365858.189181</v>
+        <v>-100991271.768481</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2515,7 +2701,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2526,22 +2716,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3.4</v>
+        <v>3.48</v>
       </c>
       <c r="C60" t="n">
-        <v>3.4</v>
+        <v>3.48</v>
       </c>
       <c r="D60" t="n">
-        <v>3.4</v>
+        <v>3.48</v>
       </c>
       <c r="E60" t="n">
-        <v>3.4</v>
+        <v>3.48</v>
       </c>
       <c r="F60" t="n">
-        <v>20787.6385</v>
+        <v>144</v>
       </c>
       <c r="G60" t="n">
-        <v>-103345070.550681</v>
+        <v>-100991127.768481</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2551,7 +2741,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2562,7 +2756,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
       <c r="C61" t="n">
         <v>3.44</v>
@@ -2571,13 +2765,13 @@
         <v>3.44</v>
       </c>
       <c r="E61" t="n">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
       <c r="F61" t="n">
-        <v>88960.56479999999</v>
+        <v>68337.5601</v>
       </c>
       <c r="G61" t="n">
-        <v>-103256109.985881</v>
+        <v>-101059465.328581</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2587,7 +2781,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2598,22 +2796,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3.44</v>
+        <v>3.46</v>
       </c>
       <c r="C62" t="n">
-        <v>3.44</v>
+        <v>3.46</v>
       </c>
       <c r="D62" t="n">
-        <v>3.44</v>
+        <v>3.46</v>
       </c>
       <c r="E62" t="n">
-        <v>3.44</v>
+        <v>3.46</v>
       </c>
       <c r="F62" t="n">
-        <v>182947.95</v>
+        <v>64380</v>
       </c>
       <c r="G62" t="n">
-        <v>-103256109.985881</v>
+        <v>-100995085.328581</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2623,7 +2821,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2634,22 +2836,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="C63" t="n">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="D63" t="n">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="E63" t="n">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="F63" t="n">
-        <v>150</v>
+        <v>6120.79</v>
       </c>
       <c r="G63" t="n">
-        <v>-103255959.985881</v>
+        <v>-100995085.328581</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2659,7 +2861,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2670,22 +2876,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="C64" t="n">
-        <v>3.44</v>
+        <v>3.46</v>
       </c>
       <c r="D64" t="n">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="E64" t="n">
-        <v>3.44</v>
+        <v>3.46</v>
       </c>
       <c r="F64" t="n">
-        <v>12209.9635</v>
+        <v>184.2013</v>
       </c>
       <c r="G64" t="n">
-        <v>-103268169.949381</v>
+        <v>-100995085.328581</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2695,7 +2901,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2706,22 +2916,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="C65" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="D65" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="E65" t="n">
-        <v>3.45</v>
+        <v>3.29</v>
       </c>
       <c r="F65" t="n">
-        <v>74396.37300000001</v>
+        <v>1780000</v>
       </c>
       <c r="G65" t="n">
-        <v>-103193773.576381</v>
+        <v>-102775085.328581</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2731,7 +2941,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2754,10 +2968,10 @@
         <v>3.44</v>
       </c>
       <c r="F66" t="n">
-        <v>20000</v>
+        <v>150</v>
       </c>
       <c r="G66" t="n">
-        <v>-103213773.576381</v>
+        <v>-102774935.328581</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2767,7 +2981,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +2996,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="C67" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="D67" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="E67" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="F67" t="n">
-        <v>11023.5855</v>
+        <v>20000</v>
       </c>
       <c r="G67" t="n">
-        <v>-103202749.990881</v>
+        <v>-102794935.328581</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2803,7 +3021,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2814,22 +3036,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3.45</v>
+        <v>3.33</v>
       </c>
       <c r="C68" t="n">
-        <v>3.46</v>
+        <v>3.4</v>
       </c>
       <c r="D68" t="n">
-        <v>3.46</v>
+        <v>3.4</v>
       </c>
       <c r="E68" t="n">
-        <v>3.45</v>
+        <v>3.33</v>
       </c>
       <c r="F68" t="n">
-        <v>147126.5509676301</v>
+        <v>20000</v>
       </c>
       <c r="G68" t="n">
-        <v>-103202749.990881</v>
+        <v>-102814935.328581</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2839,7 +3061,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2850,22 +3076,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3.47</v>
+        <v>3.42</v>
       </c>
       <c r="C69" t="n">
-        <v>3.47</v>
+        <v>3.43</v>
       </c>
       <c r="D69" t="n">
-        <v>3.47</v>
+        <v>3.43</v>
       </c>
       <c r="E69" t="n">
-        <v>3.47</v>
+        <v>3.42</v>
       </c>
       <c r="F69" t="n">
-        <v>150</v>
+        <v>231610.8184</v>
       </c>
       <c r="G69" t="n">
-        <v>-103202599.990881</v>
+        <v>-102583324.510181</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2875,7 +3101,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2886,22 +3116,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.47</v>
+        <v>3.43</v>
       </c>
       <c r="C70" t="n">
-        <v>3.47</v>
+        <v>3.43</v>
       </c>
       <c r="D70" t="n">
-        <v>3.47</v>
+        <v>3.43</v>
       </c>
       <c r="E70" t="n">
-        <v>3.47</v>
+        <v>3.43</v>
       </c>
       <c r="F70" t="n">
-        <v>237368.7452</v>
+        <v>116332.5883</v>
       </c>
       <c r="G70" t="n">
-        <v>-103202599.990881</v>
+        <v>-102583324.510181</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2911,7 +3141,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2922,22 +3156,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3.46</v>
+        <v>3.41</v>
       </c>
       <c r="C71" t="n">
-        <v>3.46</v>
+        <v>3.4</v>
       </c>
       <c r="D71" t="n">
-        <v>3.46</v>
+        <v>3.41</v>
       </c>
       <c r="E71" t="n">
-        <v>3.46</v>
+        <v>3.4</v>
       </c>
       <c r="F71" t="n">
-        <v>50000</v>
+        <v>211143.9336</v>
       </c>
       <c r="G71" t="n">
-        <v>-103252599.990881</v>
+        <v>-102794468.443781</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2947,7 +3181,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2958,22 +3196,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.47</v>
+        <v>3.42</v>
       </c>
       <c r="C72" t="n">
-        <v>3.47</v>
+        <v>3.42</v>
       </c>
       <c r="D72" t="n">
-        <v>3.47</v>
+        <v>3.42</v>
       </c>
       <c r="E72" t="n">
-        <v>3.47</v>
+        <v>3.42</v>
       </c>
       <c r="F72" t="n">
-        <v>150</v>
+        <v>32670</v>
       </c>
       <c r="G72" t="n">
-        <v>-103252449.990881</v>
+        <v>-102761798.443781</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2983,7 +3221,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2994,22 +3236,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="C73" t="n">
-        <v>3.46</v>
+        <v>3.32</v>
       </c>
       <c r="D73" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="E73" t="n">
-        <v>3.46</v>
+        <v>3.32</v>
       </c>
       <c r="F73" t="n">
-        <v>40000</v>
+        <v>300000</v>
       </c>
       <c r="G73" t="n">
-        <v>-103292449.990881</v>
+        <v>-103061798.443781</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3019,7 +3261,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3030,22 +3276,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3.46</v>
+        <v>3.32</v>
       </c>
       <c r="C74" t="n">
-        <v>3.46</v>
+        <v>3.31</v>
       </c>
       <c r="D74" t="n">
-        <v>3.46</v>
+        <v>3.32</v>
       </c>
       <c r="E74" t="n">
-        <v>3.46</v>
+        <v>3.31</v>
       </c>
       <c r="F74" t="n">
-        <v>17431.9317</v>
+        <v>80000</v>
       </c>
       <c r="G74" t="n">
-        <v>-103292449.990881</v>
+        <v>-103141798.443781</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3055,7 +3301,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3066,22 +3316,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3.45</v>
+        <v>3.38</v>
       </c>
       <c r="C75" t="n">
-        <v>3.42</v>
+        <v>3.38</v>
       </c>
       <c r="D75" t="n">
-        <v>3.45</v>
+        <v>3.38</v>
       </c>
       <c r="E75" t="n">
-        <v>3.42</v>
+        <v>3.38</v>
       </c>
       <c r="F75" t="n">
-        <v>197330.3097</v>
+        <v>153</v>
       </c>
       <c r="G75" t="n">
-        <v>-103489780.300581</v>
+        <v>-103141645.443781</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3091,7 +3341,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3102,22 +3356,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3.45</v>
+        <v>3.37</v>
       </c>
       <c r="C76" t="n">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="D76" t="n">
-        <v>3.45</v>
+        <v>3.37</v>
       </c>
       <c r="E76" t="n">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="F76" t="n">
-        <v>121883.1088</v>
+        <v>22822.822</v>
       </c>
       <c r="G76" t="n">
-        <v>-103367897.191781</v>
+        <v>-103164468.265781</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3127,7 +3381,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3138,22 +3396,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3.43</v>
+        <v>3.37</v>
       </c>
       <c r="C77" t="n">
-        <v>3.43</v>
+        <v>3.3</v>
       </c>
       <c r="D77" t="n">
-        <v>3.44</v>
+        <v>3.37</v>
       </c>
       <c r="E77" t="n">
-        <v>3.39</v>
+        <v>3.3</v>
       </c>
       <c r="F77" t="n">
-        <v>650102.9577</v>
+        <v>302253</v>
       </c>
       <c r="G77" t="n">
-        <v>-104018000.149481</v>
+        <v>-103466721.265781</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3163,7 +3421,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3174,22 +3436,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3.39</v>
+        <v>3.3</v>
       </c>
       <c r="C78" t="n">
-        <v>3.39</v>
+        <v>3.3</v>
       </c>
       <c r="D78" t="n">
-        <v>3.39</v>
+        <v>3.3</v>
       </c>
       <c r="E78" t="n">
-        <v>3.39</v>
+        <v>3.3</v>
       </c>
       <c r="F78" t="n">
-        <v>3140.6896</v>
+        <v>73880.0154</v>
       </c>
       <c r="G78" t="n">
-        <v>-104021140.839081</v>
+        <v>-103466721.265781</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3199,7 +3461,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3210,22 +3476,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="C79" t="n">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="D79" t="n">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="E79" t="n">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="F79" t="n">
-        <v>7010.1916</v>
+        <v>20000</v>
       </c>
       <c r="G79" t="n">
-        <v>-104021140.839081</v>
+        <v>-103446721.265781</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3235,7 +3501,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3246,22 +3516,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.39</v>
+        <v>3.31</v>
       </c>
       <c r="C80" t="n">
-        <v>3.39</v>
+        <v>3.31</v>
       </c>
       <c r="D80" t="n">
-        <v>3.39</v>
+        <v>3.31</v>
       </c>
       <c r="E80" t="n">
-        <v>3.39</v>
+        <v>3.31</v>
       </c>
       <c r="F80" t="n">
-        <v>294561.3535</v>
+        <v>1000</v>
       </c>
       <c r="G80" t="n">
-        <v>-104021140.839081</v>
+        <v>-103447721.265781</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3271,7 +3541,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3282,22 +3556,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.38</v>
+        <v>3.37</v>
       </c>
       <c r="C81" t="n">
-        <v>3.38</v>
+        <v>3.37</v>
       </c>
       <c r="D81" t="n">
-        <v>3.38</v>
+        <v>3.37</v>
       </c>
       <c r="E81" t="n">
-        <v>3.38</v>
+        <v>3.37</v>
       </c>
       <c r="F81" t="n">
-        <v>8653.626099999999</v>
+        <v>78842.822</v>
       </c>
       <c r="G81" t="n">
-        <v>-104029794.4651811</v>
+        <v>-103368878.443781</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3307,7 +3581,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3318,22 +3596,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="C82" t="n">
-        <v>3.39</v>
+        <v>3.43</v>
       </c>
       <c r="D82" t="n">
-        <v>3.39</v>
+        <v>3.43</v>
       </c>
       <c r="E82" t="n">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="F82" t="n">
-        <v>150</v>
+        <v>19523.5243</v>
       </c>
       <c r="G82" t="n">
-        <v>-104029644.4651811</v>
+        <v>-103349354.919481</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3343,7 +3621,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3354,22 +3636,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3.41</v>
+        <v>3.43</v>
       </c>
       <c r="C83" t="n">
-        <v>3.41</v>
+        <v>3.43</v>
       </c>
       <c r="D83" t="n">
-        <v>3.41</v>
+        <v>3.43</v>
       </c>
       <c r="E83" t="n">
-        <v>3.41</v>
+        <v>3.43</v>
       </c>
       <c r="F83" t="n">
-        <v>147</v>
+        <v>4132.9853</v>
       </c>
       <c r="G83" t="n">
-        <v>-104029497.4651811</v>
+        <v>-103349354.919481</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3379,7 +3661,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3390,22 +3676,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="C84" t="n">
-        <v>3.36</v>
+        <v>3.43</v>
       </c>
       <c r="D84" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="E84" t="n">
-        <v>3.36</v>
+        <v>3.43</v>
       </c>
       <c r="F84" t="n">
-        <v>118684.3726</v>
+        <v>55693.2974</v>
       </c>
       <c r="G84" t="n">
-        <v>-104148181.8377811</v>
+        <v>-103349354.919481</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3415,7 +3701,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3426,36 +3716,34 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>3.36</v>
+        <v>3.43</v>
       </c>
       <c r="C85" t="n">
-        <v>3.31</v>
+        <v>3.44</v>
       </c>
       <c r="D85" t="n">
-        <v>3.36</v>
+        <v>3.44</v>
       </c>
       <c r="E85" t="n">
-        <v>3.31</v>
+        <v>3.43</v>
       </c>
       <c r="F85" t="n">
-        <v>118684.3726</v>
+        <v>163635.4143</v>
       </c>
       <c r="G85" t="n">
-        <v>-104266866.2103811</v>
+        <v>-103185719.505181</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>3.36</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M85" t="n">
@@ -3468,22 +3756,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="C86" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="D86" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="E86" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="F86" t="n">
-        <v>57800</v>
+        <v>35565.4508</v>
       </c>
       <c r="G86" t="n">
-        <v>-104209066.2103811</v>
+        <v>-103221284.955981</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3508,22 +3796,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3.36</v>
+        <v>3.41</v>
       </c>
       <c r="C87" t="n">
-        <v>3.36</v>
+        <v>3.38</v>
       </c>
       <c r="D87" t="n">
-        <v>3.36</v>
+        <v>3.41</v>
       </c>
       <c r="E87" t="n">
-        <v>3.36</v>
+        <v>3.38</v>
       </c>
       <c r="F87" t="n">
-        <v>8532.6466</v>
+        <v>193133.2332</v>
       </c>
       <c r="G87" t="n">
-        <v>-104200533.5637811</v>
+        <v>-103414418.189181</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3548,22 +3836,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>3.36</v>
+        <v>3.39</v>
       </c>
       <c r="C88" t="n">
-        <v>3.36</v>
+        <v>3.39</v>
       </c>
       <c r="D88" t="n">
-        <v>3.36</v>
+        <v>3.39</v>
       </c>
       <c r="E88" t="n">
-        <v>3.36</v>
+        <v>3.39</v>
       </c>
       <c r="F88" t="n">
-        <v>1594.1746</v>
+        <v>48560</v>
       </c>
       <c r="G88" t="n">
-        <v>-104200533.5637811</v>
+        <v>-103365858.189181</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3588,22 +3876,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3.36</v>
+        <v>3.4</v>
       </c>
       <c r="C89" t="n">
-        <v>3.39</v>
+        <v>3.4</v>
       </c>
       <c r="D89" t="n">
-        <v>3.39</v>
+        <v>3.4</v>
       </c>
       <c r="E89" t="n">
-        <v>3.36</v>
+        <v>3.4</v>
       </c>
       <c r="F89" t="n">
-        <v>135126.821</v>
+        <v>20787.6385</v>
       </c>
       <c r="G89" t="n">
-        <v>-104065406.7427811</v>
+        <v>-103345070.550681</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3628,22 +3916,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>3.32</v>
+        <v>3.43</v>
       </c>
       <c r="C90" t="n">
-        <v>3.29</v>
+        <v>3.44</v>
       </c>
       <c r="D90" t="n">
-        <v>3.32</v>
+        <v>3.44</v>
       </c>
       <c r="E90" t="n">
-        <v>3.29</v>
+        <v>3.43</v>
       </c>
       <c r="F90" t="n">
-        <v>594606.2328999999</v>
+        <v>88960.56479999999</v>
       </c>
       <c r="G90" t="n">
-        <v>-104660012.9756811</v>
+        <v>-103256109.985881</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3668,22 +3956,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3.33</v>
+        <v>3.44</v>
       </c>
       <c r="C91" t="n">
-        <v>3.33</v>
+        <v>3.44</v>
       </c>
       <c r="D91" t="n">
-        <v>3.33</v>
+        <v>3.44</v>
       </c>
       <c r="E91" t="n">
-        <v>3.33</v>
+        <v>3.44</v>
       </c>
       <c r="F91" t="n">
-        <v>14531.4514</v>
+        <v>182947.95</v>
       </c>
       <c r="G91" t="n">
-        <v>-104645481.5242811</v>
+        <v>-103256109.985881</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3708,32 +3996,30 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3.32</v>
+        <v>3.45</v>
       </c>
       <c r="C92" t="n">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
       <c r="D92" t="n">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
       <c r="E92" t="n">
-        <v>3.32</v>
+        <v>3.45</v>
       </c>
       <c r="F92" t="n">
-        <v>351260.3788</v>
+        <v>150</v>
       </c>
       <c r="G92" t="n">
-        <v>-104645481.5242811</v>
+        <v>-103255959.985881</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>3.33</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
@@ -3750,32 +4036,30 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
       <c r="C93" t="n">
-        <v>3.33</v>
+        <v>3.44</v>
       </c>
       <c r="D93" t="n">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
       <c r="E93" t="n">
-        <v>3.33</v>
+        <v>3.44</v>
       </c>
       <c r="F93" t="n">
-        <v>1849.3134</v>
+        <v>12209.9635</v>
       </c>
       <c r="G93" t="n">
-        <v>-104645481.5242811</v>
+        <v>-103268169.949381</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>3.33</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
@@ -3792,32 +4076,30 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="C94" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="D94" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="E94" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="F94" t="n">
-        <v>8277.507</v>
+        <v>74396.37300000001</v>
       </c>
       <c r="G94" t="n">
-        <v>-104637204.0172811</v>
+        <v>-103193773.576381</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>3.33</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
@@ -3834,32 +4116,30 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>3.36</v>
+        <v>3.44</v>
       </c>
       <c r="C95" t="n">
-        <v>3.36</v>
+        <v>3.44</v>
       </c>
       <c r="D95" t="n">
-        <v>3.36</v>
+        <v>3.44</v>
       </c>
       <c r="E95" t="n">
-        <v>3.36</v>
+        <v>3.44</v>
       </c>
       <c r="F95" t="n">
-        <v>8277.507</v>
+        <v>20000</v>
       </c>
       <c r="G95" t="n">
-        <v>-104628926.5102811</v>
+        <v>-103213773.576381</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>3.35</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
@@ -3876,32 +4156,30 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="C96" t="n">
-        <v>3.4</v>
+        <v>3.46</v>
       </c>
       <c r="D96" t="n">
-        <v>3.4</v>
+        <v>3.46</v>
       </c>
       <c r="E96" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="F96" t="n">
-        <v>150</v>
+        <v>11023.5855</v>
       </c>
       <c r="G96" t="n">
-        <v>-104628776.5102811</v>
+        <v>-103202749.990881</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>3.36</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
@@ -3918,32 +4196,30 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="C97" t="n">
-        <v>3.4</v>
+        <v>3.46</v>
       </c>
       <c r="D97" t="n">
-        <v>3.4</v>
+        <v>3.46</v>
       </c>
       <c r="E97" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="F97" t="n">
-        <v>10674.2056</v>
+        <v>147126.5509676301</v>
       </c>
       <c r="G97" t="n">
-        <v>-104628776.5102811</v>
+        <v>-103202749.990881</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>3.4</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
@@ -3960,32 +4236,30 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>3.36</v>
+        <v>3.47</v>
       </c>
       <c r="C98" t="n">
-        <v>3.36</v>
+        <v>3.47</v>
       </c>
       <c r="D98" t="n">
-        <v>3.36</v>
+        <v>3.47</v>
       </c>
       <c r="E98" t="n">
-        <v>3.36</v>
+        <v>3.47</v>
       </c>
       <c r="F98" t="n">
-        <v>4124.0537</v>
+        <v>150</v>
       </c>
       <c r="G98" t="n">
-        <v>-104632900.5639811</v>
+        <v>-103202599.990881</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>3.4</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
@@ -4002,22 +4276,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3.4</v>
+        <v>3.47</v>
       </c>
       <c r="C99" t="n">
-        <v>3.4</v>
+        <v>3.47</v>
       </c>
       <c r="D99" t="n">
-        <v>3.4</v>
+        <v>3.47</v>
       </c>
       <c r="E99" t="n">
-        <v>3.4</v>
+        <v>3.47</v>
       </c>
       <c r="F99" t="n">
-        <v>8800</v>
+        <v>237368.7452</v>
       </c>
       <c r="G99" t="n">
-        <v>-104624100.5639811</v>
+        <v>-103202599.990881</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4042,22 +4316,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3.4</v>
+        <v>3.46</v>
       </c>
       <c r="C100" t="n">
-        <v>3.4</v>
+        <v>3.46</v>
       </c>
       <c r="D100" t="n">
-        <v>3.4</v>
+        <v>3.46</v>
       </c>
       <c r="E100" t="n">
-        <v>3.4</v>
+        <v>3.46</v>
       </c>
       <c r="F100" t="n">
-        <v>58007.507</v>
+        <v>50000</v>
       </c>
       <c r="G100" t="n">
-        <v>-104624100.5639811</v>
+        <v>-103252599.990881</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4082,22 +4356,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>3.41</v>
+        <v>3.47</v>
       </c>
       <c r="C101" t="n">
-        <v>3.41</v>
+        <v>3.47</v>
       </c>
       <c r="D101" t="n">
-        <v>3.41</v>
+        <v>3.47</v>
       </c>
       <c r="E101" t="n">
-        <v>3.41</v>
+        <v>3.47</v>
       </c>
       <c r="F101" t="n">
-        <v>359628.6669</v>
+        <v>150</v>
       </c>
       <c r="G101" t="n">
-        <v>-104264471.8970811</v>
+        <v>-103252449.990881</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4122,32 +4396,30 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>3.42</v>
+        <v>3.46</v>
       </c>
       <c r="C102" t="n">
-        <v>3.42</v>
+        <v>3.46</v>
       </c>
       <c r="D102" t="n">
-        <v>3.42</v>
+        <v>3.46</v>
       </c>
       <c r="E102" t="n">
-        <v>3.42</v>
+        <v>3.46</v>
       </c>
       <c r="F102" t="n">
-        <v>155200.3224</v>
+        <v>40000</v>
       </c>
       <c r="G102" t="n">
-        <v>-104109271.5746811</v>
+        <v>-103292449.990881</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>3.41</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
@@ -4164,32 +4436,30 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>3.43</v>
+        <v>3.46</v>
       </c>
       <c r="C103" t="n">
-        <v>3.41</v>
+        <v>3.46</v>
       </c>
       <c r="D103" t="n">
-        <v>3.43</v>
+        <v>3.46</v>
       </c>
       <c r="E103" t="n">
-        <v>3.41</v>
+        <v>3.46</v>
       </c>
       <c r="F103" t="n">
-        <v>706717.049</v>
+        <v>17431.9317</v>
       </c>
       <c r="G103" t="n">
-        <v>-104815988.6236811</v>
+        <v>-103292449.990881</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>3.42</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
@@ -4206,22 +4476,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="C104" t="n">
         <v>3.42</v>
       </c>
       <c r="D104" t="n">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="E104" t="n">
         <v>3.42</v>
       </c>
       <c r="F104" t="n">
-        <v>196150</v>
+        <v>197330.3097</v>
       </c>
       <c r="G104" t="n">
-        <v>-104619838.6236811</v>
+        <v>-103489780.300581</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4246,32 +4516,30 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="C105" t="n">
-        <v>3.42</v>
+        <v>3.44</v>
       </c>
       <c r="D105" t="n">
-        <v>3.42</v>
+        <v>3.45</v>
       </c>
       <c r="E105" t="n">
-        <v>3.42</v>
+        <v>3.44</v>
       </c>
       <c r="F105" t="n">
-        <v>50000</v>
+        <v>121883.1088</v>
       </c>
       <c r="G105" t="n">
-        <v>-104619838.6236811</v>
+        <v>-103367897.191781</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>3.42</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
@@ -4282,6 +4550,1200 @@
         <v>1</v>
       </c>
       <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="C106" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="D106" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="E106" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="F106" t="n">
+        <v>650102.9577</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-104018000.149481</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="C107" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="D107" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="E107" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3140.6896</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-104021140.839081</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="C108" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="D108" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="E108" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="F108" t="n">
+        <v>7010.1916</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-104021140.839081</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="C109" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="D109" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="F109" t="n">
+        <v>294561.3535</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-104021140.839081</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="C110" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="D110" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="E110" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="F110" t="n">
+        <v>8653.626099999999</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-104029794.4651811</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="C111" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="D111" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="E111" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="F111" t="n">
+        <v>150</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-104029644.4651811</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="C112" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="D112" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="E112" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="F112" t="n">
+        <v>147</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-104029497.4651811</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="C113" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D113" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="F113" t="n">
+        <v>118684.3726</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-104148181.8377811</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C114" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="D114" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="F114" t="n">
+        <v>118684.3726</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-104266866.2103811</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="C115" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="D115" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="E115" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="F115" t="n">
+        <v>57800</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-104209066.2103811</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C116" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D116" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E116" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="F116" t="n">
+        <v>8532.6466</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-104200533.5637811</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C117" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D117" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E117" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1594.1746</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-104200533.5637811</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C118" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="D118" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="E118" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="F118" t="n">
+        <v>135126.821</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-104065406.7427811</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="C119" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="D119" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="E119" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="F119" t="n">
+        <v>594606.2328999999</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-104660012.9756811</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="C120" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D120" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E120" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="F120" t="n">
+        <v>14531.4514</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-104645481.5242811</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="C121" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D121" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E121" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="F121" t="n">
+        <v>351260.3788</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-104645481.5242811</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="C122" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D122" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1849.3134</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-104645481.5242811</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="C123" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="D123" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="E123" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F123" t="n">
+        <v>8277.507</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-104637204.0172811</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C124" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D124" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E124" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="F124" t="n">
+        <v>8277.507</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-104628926.5102811</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C125" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D125" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E125" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F125" t="n">
+        <v>150</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-104628776.5102811</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C126" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D126" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E126" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F126" t="n">
+        <v>10674.2056</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-104628776.5102811</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="C127" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D127" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="E127" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4124.0537</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-104632900.5639811</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C128" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D128" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E128" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F128" t="n">
+        <v>8800</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-104624100.5639811</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C129" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D129" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E129" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="F129" t="n">
+        <v>58007.507</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-104624100.5639811</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="C130" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="D130" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="E130" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="F130" t="n">
+        <v>359628.6669</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-104264471.8970811</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="C131" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="D131" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F131" t="n">
+        <v>155200.3224</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-104109271.5746811</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="C132" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="D132" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="E132" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="F132" t="n">
+        <v>706717.049</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-104815988.6236811</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="C133" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="D133" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="E133" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F133" t="n">
+        <v>196150</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-104619838.6236811</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="C134" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="D134" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="E134" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F134" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-104619838.6236811</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-13 BackTest DAC.xlsx
+++ b/BackTest/2019-11-13 BackTest DAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N134"/>
+  <dimension ref="A1:M134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-99314571.06098104</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-99314571.06098104</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,24 +1078,15 @@
         <v>-99905224.70858105</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1184,22 +1113,13 @@
       <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.41</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1224,22 +1144,15 @@
         <v>-99949947.26648104</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1266,20 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1306,20 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1346,20 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1384,24 +1276,15 @@
         <v>-100029947.266481</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1426,24 +1309,15 @@
         <v>-100121616.626481</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1468,24 +1342,15 @@
         <v>-100118729.116481</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1510,24 +1375,15 @@
         <v>-100118729.116481</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1552,24 +1408,15 @@
         <v>-100118729.116481</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1594,24 +1441,15 @@
         <v>-100118729.116481</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1636,24 +1474,15 @@
         <v>-100020147.593981</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1680,22 +1509,13 @@
       <c r="H34" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.43</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1720,22 +1540,15 @@
         <v>-100019997.593981</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1762,20 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1800,24 +1606,15 @@
         <v>-100302072.571681</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1842,24 +1639,15 @@
         <v>-100246607.292781</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1884,24 +1672,15 @@
         <v>-100246607.292781</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1926,24 +1705,15 @@
         <v>-100246607.292781</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1968,24 +1738,15 @@
         <v>-100186607.292781</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2010,24 +1771,15 @@
         <v>-100186460.292781</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2054,20 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2094,20 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2134,20 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2174,20 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2214,20 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2254,20 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2292,24 +2002,15 @@
         <v>-101052716.472981</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2336,20 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2376,20 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2416,20 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2456,20 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2496,20 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2536,20 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2576,20 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2616,20 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2656,20 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2696,20 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2736,20 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2776,20 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2816,20 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2854,22 +2464,15 @@
         <v>-100995085.328581</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2894,22 +2497,15 @@
         <v>-100995085.328581</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2934,22 +2530,15 @@
         <v>-102775085.328581</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2976,20 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3014,22 +2596,15 @@
         <v>-102794935.328581</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3056,20 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3096,20 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3136,20 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3176,20 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3216,20 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3256,20 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3296,20 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3336,20 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3376,20 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3414,22 +2926,21 @@
         <v>-103466721.265781</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>3.37</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3456,20 +2967,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3494,22 +3002,21 @@
         <v>-103446721.265781</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3536,20 +3043,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3576,20 +3080,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3616,20 +3117,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3656,20 +3154,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3696,20 +3191,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3736,20 +3228,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3776,20 +3265,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3816,20 +3302,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3856,20 +3339,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3896,20 +3376,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3934,22 +3411,21 @@
         <v>-103256109.985881</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3974,22 +3450,21 @@
         <v>-103256109.985881</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4016,20 +3491,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4056,20 +3528,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4096,20 +3565,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4136,20 +3602,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4176,20 +3639,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
+      <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4216,20 +3676,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
+      <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4254,22 +3711,21 @@
         <v>-103202599.990881</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>3.46</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4296,20 +3752,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
+      <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4336,20 +3789,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
+      <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4376,20 +3826,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
+      <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4414,22 +3861,17 @@
         <v>-103292449.990881</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4456,20 +3898,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4496,20 +3931,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4534,22 +3962,19 @@
         <v>-103367897.191781</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>3.42</v>
+      </c>
+      <c r="J105" t="n">
+        <v>3.42</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4574,22 +3999,23 @@
         <v>-104018000.149481</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>3.44</v>
+      </c>
+      <c r="J106" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4614,22 +4040,23 @@
         <v>-104021140.839081</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
+        <v>3.43</v>
+      </c>
+      <c r="J107" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4654,22 +4081,23 @@
         <v>-104021140.839081</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
+        <v>3.39</v>
+      </c>
+      <c r="J108" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4694,22 +4122,23 @@
         <v>-104021140.839081</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
+        <v>3.39</v>
+      </c>
+      <c r="J109" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4734,22 +4163,23 @@
         <v>-104029794.4651811</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
+        <v>3.39</v>
+      </c>
+      <c r="J110" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4774,22 +4204,23 @@
         <v>-104029644.4651811</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
+        <v>3.38</v>
+      </c>
+      <c r="J111" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4814,22 +4245,23 @@
         <v>-104029497.4651811</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
+        <v>3.39</v>
+      </c>
+      <c r="J112" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4854,22 +4286,23 @@
         <v>-104148181.8377811</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
+        <v>3.41</v>
+      </c>
+      <c r="J113" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4894,22 +4327,23 @@
         <v>-104266866.2103811</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
+        <v>3.36</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4934,22 +4368,23 @@
         <v>-104209066.2103811</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
+        <v>3.31</v>
+      </c>
+      <c r="J115" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4974,22 +4409,23 @@
         <v>-104200533.5637811</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
+        <v>3.34</v>
+      </c>
+      <c r="J116" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5014,22 +4450,23 @@
         <v>-104200533.5637811</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
+        <v>3.36</v>
+      </c>
+      <c r="J117" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5054,24 +4491,23 @@
         <v>-104065406.7427811</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>3.36</v>
       </c>
       <c r="J118" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
+        <v>3.42</v>
+      </c>
+      <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5096,24 +4532,23 @@
         <v>-104660012.9756811</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>3.39</v>
       </c>
       <c r="J119" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
+        <v>3.42</v>
+      </c>
+      <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5138,24 +4573,23 @@
         <v>-104645481.5242811</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="J120" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
+        <v>3.42</v>
+      </c>
+      <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5180,24 +4614,23 @@
         <v>-104645481.5242811</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>3.33</v>
       </c>
       <c r="J121" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
+        <v>3.42</v>
+      </c>
+      <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5222,24 +4655,23 @@
         <v>-104645481.5242811</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>3.33</v>
       </c>
       <c r="J122" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
+        <v>3.42</v>
+      </c>
+      <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5264,24 +4696,23 @@
         <v>-104637204.0172811</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>3.33</v>
       </c>
       <c r="J123" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
+        <v>3.42</v>
+      </c>
+      <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5306,24 +4737,23 @@
         <v>-104628926.5102811</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="J124" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
+        <v>3.42</v>
+      </c>
+      <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5348,24 +4778,23 @@
         <v>-104628776.5102811</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>3.36</v>
       </c>
       <c r="J125" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
+        <v>3.42</v>
+      </c>
+      <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5390,24 +4819,23 @@
         <v>-104628776.5102811</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="J126" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
+        <v>3.42</v>
+      </c>
+      <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5432,24 +4860,23 @@
         <v>-104632900.5639811</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="J127" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
+        <v>3.42</v>
+      </c>
+      <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5474,24 +4901,23 @@
         <v>-104624100.5639811</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>3.36</v>
       </c>
       <c r="J128" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
+        <v>3.42</v>
+      </c>
+      <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5516,24 +4942,23 @@
         <v>-104624100.5639811</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="J129" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
+        <v>3.42</v>
+      </c>
+      <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5558,24 +4983,21 @@
         <v>-104264471.8970811</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
+        <v>3.42</v>
+      </c>
+      <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5600,24 +5022,23 @@
         <v>-104109271.5746811</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>3.41</v>
       </c>
       <c r="J131" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
+        <v>3.42</v>
+      </c>
+      <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5642,24 +5063,21 @@
         <v>-104815988.6236811</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
         <v>3.42</v>
       </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
+      <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5684,24 +5102,23 @@
         <v>-104619838.6236811</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>3.41</v>
       </c>
       <c r="J133" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
+        <v>3.42</v>
+      </c>
+      <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5726,26 +5143,25 @@
         <v>-104619838.6236811</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="J134" t="n">
         <v>3.42</v>
       </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
+      <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest DAC.xlsx
+++ b/BackTest/2019-11-13 BackTest DAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-99314571.06098104</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-99314571.06098104</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -715,10 +715,14 @@
         <v>-99297832.27268103</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.52</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -748,11 +752,19 @@
         <v>-99263963.40918103</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +793,19 @@
         <v>-99263963.40918103</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +834,19 @@
         <v>-99097387.47638103</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +875,19 @@
         <v>-99704814.83328104</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +916,19 @@
         <v>-99691414.83328104</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +957,19 @@
         <v>-99691414.83328104</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +998,19 @@
         <v>-99691414.83328104</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1039,19 @@
         <v>-99691269.83328104</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1083,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1122,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1158,19 @@
         <v>-99905224.70858105</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1199,17 @@
         <v>-99905081.70858105</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1238,17 @@
         <v>-99949947.26648104</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1280,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1316,19 @@
         <v>-99949947.26648104</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1357,19 @@
         <v>-99949947.26648104</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1398,19 @@
         <v>-100029947.266481</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1439,19 @@
         <v>-100121616.626481</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1480,19 @@
         <v>-100118729.116481</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1524,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1560,19 @@
         <v>-100118729.116481</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1601,19 @@
         <v>-100118729.116481</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1645,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,13 +1681,19 @@
         <v>-100019997.593981</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0.9921590909090908</v>
       </c>
       <c r="M34" t="inlineStr"/>
     </row>
@@ -1540,7 +1720,7 @@
         <v>-100019997.593981</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1753,7 @@
         <v>-100302937.808681</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1738,10 +1918,14 @@
         <v>-100186607.292781</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.35</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
@@ -1774,8 +1958,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +1997,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2464,7 +2660,7 @@
         <v>-100995085.328581</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2693,7 @@
         <v>-100995085.328581</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2726,7 @@
         <v>-102775085.328581</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2596,7 +2792,7 @@
         <v>-102794935.328581</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2926,17 +3122,11 @@
         <v>-103466721.265781</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>3.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2969,11 +3159,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3002,17 +3188,11 @@
         <v>-103446721.265781</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>3.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3045,11 +3225,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3082,11 +3258,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3119,11 +3291,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3156,11 +3324,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3193,11 +3357,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3230,11 +3390,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3267,11 +3423,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3304,11 +3456,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3341,11 +3489,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3378,11 +3522,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3411,17 +3551,11 @@
         <v>-103256109.985881</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3450,17 +3584,11 @@
         <v>-103256109.985881</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>3.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3493,11 +3621,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3530,11 +3654,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3567,11 +3687,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3604,11 +3720,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3641,11 +3753,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3678,11 +3786,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3711,17 +3815,11 @@
         <v>-103202599.990881</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>3.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3754,11 +3852,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3791,11 +3885,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3828,11 +3918,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3861,16 +3947,14 @@
         <v>-103292449.990881</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
       <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
@@ -3962,14 +4046,10 @@
         <v>-103367897.191781</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="J105" t="n">
-        <v>3.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
@@ -3999,19 +4079,11 @@
         <v>-104018000.149481</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="J106" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4040,19 +4112,11 @@
         <v>-104021140.839081</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="J107" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4081,19 +4145,11 @@
         <v>-104021140.839081</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="J108" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4122,19 +4178,11 @@
         <v>-104021140.839081</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="J109" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4163,19 +4211,11 @@
         <v>-104029794.4651811</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="J110" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4204,19 +4244,11 @@
         <v>-104029644.4651811</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="J111" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4245,19 +4277,11 @@
         <v>-104029497.4651811</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="J112" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4286,19 +4310,11 @@
         <v>-104148181.8377811</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="J113" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4327,19 +4343,11 @@
         <v>-104266866.2103811</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="J114" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4368,19 +4376,11 @@
         <v>-104209066.2103811</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="J115" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4409,19 +4409,11 @@
         <v>-104200533.5637811</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="J116" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4450,19 +4442,11 @@
         <v>-104200533.5637811</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="J117" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4491,19 +4475,11 @@
         <v>-104065406.7427811</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="J118" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4532,19 +4508,11 @@
         <v>-104660012.9756811</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="J119" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4573,19 +4541,11 @@
         <v>-104645481.5242811</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="J120" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4614,17 +4574,15 @@
         <v>-104645481.5242811</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>3.33</v>
       </c>
-      <c r="J121" t="n">
-        <v>3.42</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L121" t="n">
@@ -4655,14 +4613,10 @@
         <v>-104645481.5242811</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="J122" t="n">
-        <v>3.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4696,14 +4650,10 @@
         <v>-104637204.0172811</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="J123" t="n">
-        <v>3.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4737,14 +4687,10 @@
         <v>-104628926.5102811</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J124" t="n">
-        <v>3.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4778,14 +4724,10 @@
         <v>-104628776.5102811</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="J125" t="n">
-        <v>3.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4819,14 +4761,10 @@
         <v>-104628776.5102811</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J126" t="n">
-        <v>3.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4860,14 +4798,10 @@
         <v>-104632900.5639811</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J127" t="n">
-        <v>3.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4901,14 +4835,10 @@
         <v>-104624100.5639811</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="J128" t="n">
-        <v>3.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4942,14 +4872,10 @@
         <v>-104624100.5639811</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J129" t="n">
-        <v>3.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4986,9 +4912,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>3.42</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5022,14 +4946,10 @@
         <v>-104109271.5746811</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="J131" t="n">
-        <v>3.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5066,9 +4986,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>3.42</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5102,14 +5020,10 @@
         <v>-104619838.6236811</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="J133" t="n">
-        <v>3.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5143,14 +5057,10 @@
         <v>-104619838.6236811</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="J134" t="n">
-        <v>3.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5162,6 +5072,6 @@
       <c r="M134" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest DAC.xlsx
+++ b/BackTest/2019-11-13 BackTest DAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -715,14 +715,10 @@
         <v>-99297832.27268103</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -752,19 +748,11 @@
         <v>-99263963.40918103</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -793,19 +781,11 @@
         <v>-99263963.40918103</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -834,19 +814,11 @@
         <v>-99097387.47638103</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -875,19 +847,11 @@
         <v>-99704814.83328104</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -916,19 +880,11 @@
         <v>-99691414.83328104</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -957,19 +913,11 @@
         <v>-99691414.83328104</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -998,19 +946,11 @@
         <v>-99691414.83328104</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1039,19 +979,11 @@
         <v>-99691269.83328104</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1083,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1122,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1158,19 +1078,11 @@
         <v>-99905224.70858105</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1202,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1241,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1280,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1316,19 +1210,11 @@
         <v>-99949947.26648104</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1357,19 +1243,11 @@
         <v>-99949947.26648104</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1398,19 +1276,11 @@
         <v>-100029947.266481</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1439,19 +1309,11 @@
         <v>-100121616.626481</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1480,19 +1342,11 @@
         <v>-100118729.116481</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1524,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1560,19 +1408,11 @@
         <v>-100118729.116481</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1601,19 +1441,11 @@
         <v>-100118729.116481</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1645,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1681,19 +1507,13 @@
         <v>-100019997.593981</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
-        <v>0.9921590909090908</v>
+        <v>1</v>
       </c>
       <c r="M34" t="inlineStr"/>
     </row>
@@ -1720,7 +1540,7 @@
         <v>-100019997.593981</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1753,7 +1573,7 @@
         <v>-100302937.808681</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2066,10 +1886,14 @@
         <v>-100238982.442281</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.36</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
@@ -2102,8 +1926,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2135,8 +1965,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2957,7 +2793,7 @@
         <v>-102761798.443781</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3122,7 +2958,7 @@
         <v>-103466721.265781</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3155,7 +2991,7 @@
         <v>-103466721.265781</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3188,7 +3024,7 @@
         <v>-103446721.265781</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3221,7 +3057,7 @@
         <v>-103447721.265781</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3287,7 +3123,7 @@
         <v>-103349354.919481</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3320,7 +3156,7 @@
         <v>-103349354.919481</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3353,7 +3189,7 @@
         <v>-103349354.919481</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3419,7 +3255,7 @@
         <v>-103221284.955981</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3452,7 +3288,7 @@
         <v>-103414418.189181</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3485,7 +3321,7 @@
         <v>-103365858.189181</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3518,7 +3354,7 @@
         <v>-103345070.550681</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3551,7 +3387,7 @@
         <v>-103256109.985881</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3584,7 +3420,7 @@
         <v>-103256109.985881</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3716,7 +3552,7 @@
         <v>-103213773.576381</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3749,7 +3585,7 @@
         <v>-103202749.990881</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3782,7 +3618,7 @@
         <v>-103202749.990881</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3815,7 +3651,7 @@
         <v>-103202599.990881</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3848,7 +3684,7 @@
         <v>-103202599.990881</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4079,7 +3915,7 @@
         <v>-104018000.149481</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4112,7 +3948,7 @@
         <v>-104021140.839081</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4145,7 +3981,7 @@
         <v>-104021140.839081</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4178,7 +4014,7 @@
         <v>-104021140.839081</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4277,7 +4113,7 @@
         <v>-104029497.4651811</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4310,7 +4146,7 @@
         <v>-104148181.8377811</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4574,17 +4410,11 @@
         <v>-104645481.5242811</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>3.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4617,11 +4447,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4654,11 +4480,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4691,11 +4513,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4724,15 +4542,11 @@
         <v>-104628776.5102811</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4761,15 +4575,11 @@
         <v>-104628776.5102811</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4798,15 +4608,11 @@
         <v>-104632900.5639811</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4835,15 +4641,11 @@
         <v>-104624100.5639811</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4876,11 +4678,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4913,11 +4711,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4950,11 +4744,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4987,11 +4777,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5024,11 +4810,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5061,17 +4843,13 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
       <c r="M134" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest DAC.xlsx
+++ b/BackTest/2019-11-13 BackTest DAC.xlsx
@@ -484,7 +484,7 @@
         <v>-99314571.06098104</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-99398130.08378103</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-99415055.08378103</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-99415055.08378103</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-99415055.08378103</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-99297451.92008103</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,10 +715,14 @@
         <v>-99297832.27268103</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.52</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -748,11 +752,19 @@
         <v>-99263963.40918103</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +793,19 @@
         <v>-99263963.40918103</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +834,19 @@
         <v>-99097387.47638103</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +875,19 @@
         <v>-99704814.83328104</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +916,19 @@
         <v>-99691414.83328104</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +957,19 @@
         <v>-99691414.83328104</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1001,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1040,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1076,17 @@
         <v>-99701910.02468105</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1115,17 @@
         <v>-99835806.05988105</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1154,17 @@
         <v>-99905224.70858105</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1196,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,13 +1232,19 @@
         <v>-99949947.26648104</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0.9665909090909091</v>
       </c>
       <c r="M23" t="inlineStr"/>
     </row>
@@ -1573,7 +1667,7 @@
         <v>-100302937.808681</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1738,14 +1832,10 @@
         <v>-100186607.292781</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
@@ -1778,14 +1868,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1814,17 +1898,11 @@
         <v>-100186610.292781</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1853,7 +1931,7 @@
         <v>-100238982.442281</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1886,14 +1964,10 @@
         <v>-100238982.442281</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
@@ -1926,14 +2000,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1965,14 +2033,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2232,7 +2294,7 @@
         <v>-100793602.666581</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2265,7 +2327,7 @@
         <v>-100899000.530781</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2298,7 +2360,7 @@
         <v>-100967629.977481</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2331,7 +2393,7 @@
         <v>-100967629.977481</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2463,7 +2525,7 @@
         <v>-100995085.328581</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2496,7 +2558,7 @@
         <v>-100995085.328581</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2529,7 +2591,7 @@
         <v>-100995085.328581</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2562,7 +2624,7 @@
         <v>-102775085.328581</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2793,7 +2855,7 @@
         <v>-102761798.443781</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2958,7 +3020,7 @@
         <v>-103466721.265781</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2991,7 +3053,7 @@
         <v>-103466721.265781</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3024,7 +3086,7 @@
         <v>-103446721.265781</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3057,7 +3119,7 @@
         <v>-103447721.265781</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3123,7 +3185,7 @@
         <v>-103349354.919481</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3156,7 +3218,7 @@
         <v>-103349354.919481</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3189,7 +3251,7 @@
         <v>-103349354.919481</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3255,7 +3317,7 @@
         <v>-103221284.955981</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3288,7 +3350,7 @@
         <v>-103414418.189181</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3321,7 +3383,7 @@
         <v>-103365858.189181</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3354,7 +3416,7 @@
         <v>-103345070.550681</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3387,7 +3449,7 @@
         <v>-103256109.985881</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3420,7 +3482,7 @@
         <v>-103256109.985881</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3552,7 +3614,7 @@
         <v>-103213773.576381</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3585,7 +3647,7 @@
         <v>-103202749.990881</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3618,7 +3680,7 @@
         <v>-103202749.990881</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3651,7 +3713,7 @@
         <v>-103202599.990881</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3684,7 +3746,7 @@
         <v>-103202599.990881</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3915,7 +3977,7 @@
         <v>-104018000.149481</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3948,7 +4010,7 @@
         <v>-104021140.839081</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3981,7 +4043,7 @@
         <v>-104021140.839081</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4014,7 +4076,7 @@
         <v>-104021140.839081</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4113,7 +4175,7 @@
         <v>-104029497.4651811</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4146,7 +4208,7 @@
         <v>-104148181.8377811</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4344,11 +4406,17 @@
         <v>-104660012.9756811</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4377,11 +4445,17 @@
         <v>-104645481.5242811</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>3.29</v>
+      </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4410,11 +4484,17 @@
         <v>-104645481.5242811</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>3.33</v>
+      </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4443,11 +4523,17 @@
         <v>-104645481.5242811</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>3.33</v>
+      </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4476,11 +4562,17 @@
         <v>-104637204.0172811</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>3.33</v>
+      </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4509,11 +4601,17 @@
         <v>-104628926.5102811</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>3.35</v>
+      </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4542,11 +4640,17 @@
         <v>-104628776.5102811</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>3.36</v>
+      </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4575,11 +4679,15 @@
         <v>-104628776.5102811</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4608,11 +4716,15 @@
         <v>-104632900.5639811</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4641,11 +4753,17 @@
         <v>-104624100.5639811</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>3.36</v>
+      </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4674,11 +4792,17 @@
         <v>-104624100.5639811</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>3.4</v>
+      </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4711,7 +4835,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4744,7 +4872,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4777,7 +4909,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4806,14 +4942,16 @@
         <v>-104619838.6236811</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
@@ -4839,7 +4977,7 @@
         <v>-104619838.6236811</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>

--- a/BackTest/2019-11-13 BackTest DAC.xlsx
+++ b/BackTest/2019-11-13 BackTest DAC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M134"/>
+  <dimension ref="A1:L134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>103159.7302</v>
       </c>
       <c r="G2" t="n">
-        <v>-99314571.06098104</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>292.5803</v>
       </c>
       <c r="G3" t="n">
-        <v>-99314571.06098104</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>50180.7527</v>
       </c>
       <c r="G4" t="n">
-        <v>-99364751.81368104</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>33378.2701</v>
       </c>
       <c r="G5" t="n">
-        <v>-99398130.08378103</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>16925</v>
       </c>
       <c r="G6" t="n">
-        <v>-99415055.08378103</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>153190.4829</v>
       </c>
       <c r="G7" t="n">
-        <v>-99415055.08378103</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>118634.6738</v>
       </c>
       <c r="G8" t="n">
-        <v>-99415055.08378103</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>117603.1637</v>
       </c>
       <c r="G9" t="n">
-        <v>-99297451.92008103</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,22 +683,15 @@
         <v>380.3526</v>
       </c>
       <c r="G10" t="n">
-        <v>-99297832.27268103</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -749,26 +713,15 @@
         <v>33868.8635</v>
       </c>
       <c r="G11" t="n">
-        <v>-99263963.40918103</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -790,26 +743,15 @@
         <v>144249.216</v>
       </c>
       <c r="G12" t="n">
-        <v>-99263963.40918103</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -831,26 +773,15 @@
         <v>166575.9328</v>
       </c>
       <c r="G13" t="n">
-        <v>-99097387.47638103</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -872,26 +803,15 @@
         <v>607427.3569</v>
       </c>
       <c r="G14" t="n">
-        <v>-99704814.83328104</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -913,26 +833,15 @@
         <v>13400</v>
       </c>
       <c r="G15" t="n">
-        <v>-99691414.83328104</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -954,26 +863,15 @@
         <v>209978.093</v>
       </c>
       <c r="G16" t="n">
-        <v>-99691414.83328104</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -995,24 +893,15 @@
         <v>216954.8753</v>
       </c>
       <c r="G17" t="n">
-        <v>-99691414.83328104</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,24 +923,15 @@
         <v>145</v>
       </c>
       <c r="G18" t="n">
-        <v>-99691269.83328104</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1073,24 +953,15 @@
         <v>10640.1914</v>
       </c>
       <c r="G19" t="n">
-        <v>-99701910.02468105</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1112,24 +983,15 @@
         <v>133896.0352</v>
       </c>
       <c r="G20" t="n">
-        <v>-99835806.05988105</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1151,24 +1013,15 @@
         <v>69418.64870000001</v>
       </c>
       <c r="G21" t="n">
-        <v>-99905224.70858105</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1190,24 +1043,15 @@
         <v>143</v>
       </c>
       <c r="G22" t="n">
-        <v>-99905081.70858105</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1229,24 +1073,15 @@
         <v>44865.5579</v>
       </c>
       <c r="G23" t="n">
-        <v>-99949947.26648104</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>0.9665909090909091</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1268,18 +1103,15 @@
         <v>16356.643</v>
       </c>
       <c r="G24" t="n">
-        <v>-99949947.26648104</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1301,18 +1133,15 @@
         <v>4543.4335</v>
       </c>
       <c r="G25" t="n">
-        <v>-99949947.26648104</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1334,18 +1163,15 @@
         <v>30000</v>
       </c>
       <c r="G26" t="n">
-        <v>-99949947.26648104</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1367,18 +1193,15 @@
         <v>80000</v>
       </c>
       <c r="G27" t="n">
-        <v>-100029947.266481</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1400,18 +1223,15 @@
         <v>91669.36</v>
       </c>
       <c r="G28" t="n">
-        <v>-100121616.626481</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1433,18 +1253,15 @@
         <v>2887.51</v>
       </c>
       <c r="G29" t="n">
-        <v>-100118729.116481</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,18 +1283,15 @@
         <v>90653.91</v>
       </c>
       <c r="G30" t="n">
-        <v>-100118729.116481</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1499,18 +1313,15 @@
         <v>95333.92290000001</v>
       </c>
       <c r="G31" t="n">
-        <v>-100118729.116481</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1532,18 +1343,15 @@
         <v>194324.9903</v>
       </c>
       <c r="G32" t="n">
-        <v>-100118729.116481</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1565,18 +1373,15 @@
         <v>98581.52250000001</v>
       </c>
       <c r="G33" t="n">
-        <v>-100020147.593981</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1598,18 +1403,15 @@
         <v>150</v>
       </c>
       <c r="G34" t="n">
-        <v>-100019997.593981</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1631,18 +1433,15 @@
         <v>630.5319</v>
       </c>
       <c r="G35" t="n">
-        <v>-100019997.593981</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1664,18 +1463,15 @@
         <v>282940.2147</v>
       </c>
       <c r="G36" t="n">
-        <v>-100302937.808681</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1697,18 +1493,15 @@
         <v>865.237</v>
       </c>
       <c r="G37" t="n">
-        <v>-100302072.571681</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1730,18 +1523,15 @@
         <v>55465.2789</v>
       </c>
       <c r="G38" t="n">
-        <v>-100246607.292781</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1763,18 +1553,15 @@
         <v>29619.2083</v>
       </c>
       <c r="G39" t="n">
-        <v>-100246607.292781</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1796,18 +1583,15 @@
         <v>373136.5762</v>
       </c>
       <c r="G40" t="n">
-        <v>-100246607.292781</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1829,18 +1613,15 @@
         <v>60000</v>
       </c>
       <c r="G41" t="n">
-        <v>-100186607.292781</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1862,18 +1643,15 @@
         <v>147</v>
       </c>
       <c r="G42" t="n">
-        <v>-100186460.292781</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1895,18 +1673,15 @@
         <v>150</v>
       </c>
       <c r="G43" t="n">
-        <v>-100186610.292781</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1928,18 +1703,15 @@
         <v>52372.1495</v>
       </c>
       <c r="G44" t="n">
-        <v>-100238982.442281</v>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1961,18 +1733,15 @@
         <v>15110</v>
       </c>
       <c r="G45" t="n">
-        <v>-100238982.442281</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1994,18 +1763,15 @@
         <v>149</v>
       </c>
       <c r="G46" t="n">
-        <v>-100238833.442281</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2027,18 +1793,15 @@
         <v>4890</v>
       </c>
       <c r="G47" t="n">
-        <v>-100243723.442281</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2060,18 +1823,21 @@
         <v>809143.0307</v>
       </c>
       <c r="G48" t="n">
-        <v>-101052866.472981</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>3.36</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2093,18 +1859,21 @@
         <v>150</v>
       </c>
       <c r="G49" t="n">
-        <v>-101052716.472981</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2126,18 +1895,19 @@
         <v>138869.0602</v>
       </c>
       <c r="G50" t="n">
-        <v>-101052716.472981</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2159,18 +1929,19 @@
         <v>100000</v>
       </c>
       <c r="G51" t="n">
-        <v>-101052716.472981</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2192,18 +1963,19 @@
         <v>47441.6295</v>
       </c>
       <c r="G52" t="n">
-        <v>-101005274.843481</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2225,18 +1997,19 @@
         <v>146</v>
       </c>
       <c r="G53" t="n">
-        <v>-101005128.843481</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2258,18 +2031,19 @@
         <v>371051.86</v>
       </c>
       <c r="G54" t="n">
-        <v>-101005128.843481</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2291,18 +2065,19 @@
         <v>211526.1769</v>
       </c>
       <c r="G55" t="n">
-        <v>-100793602.666581</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2324,18 +2099,19 @@
         <v>105397.8642</v>
       </c>
       <c r="G56" t="n">
-        <v>-100899000.530781</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2357,18 +2133,19 @@
         <v>68629.4467</v>
       </c>
       <c r="G57" t="n">
-        <v>-100967629.977481</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2390,18 +2167,19 @@
         <v>141640</v>
       </c>
       <c r="G58" t="n">
-        <v>-100967629.977481</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2423,18 +2201,19 @@
         <v>23641.791</v>
       </c>
       <c r="G59" t="n">
-        <v>-100991271.768481</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2456,18 +2235,19 @@
         <v>144</v>
       </c>
       <c r="G60" t="n">
-        <v>-100991127.768481</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2489,18 +2269,19 @@
         <v>68337.5601</v>
       </c>
       <c r="G61" t="n">
-        <v>-101059465.328581</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2522,18 +2303,19 @@
         <v>64380</v>
       </c>
       <c r="G62" t="n">
-        <v>-100995085.328581</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2555,18 +2337,19 @@
         <v>6120.79</v>
       </c>
       <c r="G63" t="n">
-        <v>-100995085.328581</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2588,18 +2371,19 @@
         <v>184.2013</v>
       </c>
       <c r="G64" t="n">
-        <v>-100995085.328581</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2621,18 +2405,19 @@
         <v>1780000</v>
       </c>
       <c r="G65" t="n">
-        <v>-102775085.328581</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2654,18 +2439,19 @@
         <v>150</v>
       </c>
       <c r="G66" t="n">
-        <v>-102774935.328581</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2687,18 +2473,19 @@
         <v>20000</v>
       </c>
       <c r="G67" t="n">
-        <v>-102794935.328581</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2720,18 +2507,19 @@
         <v>20000</v>
       </c>
       <c r="G68" t="n">
-        <v>-102814935.328581</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2753,18 +2541,19 @@
         <v>231610.8184</v>
       </c>
       <c r="G69" t="n">
-        <v>-102583324.510181</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2786,18 +2575,19 @@
         <v>116332.5883</v>
       </c>
       <c r="G70" t="n">
-        <v>-102583324.510181</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2819,18 +2609,19 @@
         <v>211143.9336</v>
       </c>
       <c r="G71" t="n">
-        <v>-102794468.443781</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2852,18 +2643,19 @@
         <v>32670</v>
       </c>
       <c r="G72" t="n">
-        <v>-102761798.443781</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2885,18 +2677,19 @@
         <v>300000</v>
       </c>
       <c r="G73" t="n">
-        <v>-103061798.443781</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2918,18 +2711,19 @@
         <v>80000</v>
       </c>
       <c r="G74" t="n">
-        <v>-103141798.443781</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2951,18 +2745,19 @@
         <v>153</v>
       </c>
       <c r="G75" t="n">
-        <v>-103141645.443781</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2984,18 +2779,19 @@
         <v>22822.822</v>
       </c>
       <c r="G76" t="n">
-        <v>-103164468.265781</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3017,18 +2813,19 @@
         <v>302253</v>
       </c>
       <c r="G77" t="n">
-        <v>-103466721.265781</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3050,18 +2847,19 @@
         <v>73880.0154</v>
       </c>
       <c r="G78" t="n">
-        <v>-103466721.265781</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3083,18 +2881,19 @@
         <v>20000</v>
       </c>
       <c r="G79" t="n">
-        <v>-103446721.265781</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3116,18 +2915,19 @@
         <v>1000</v>
       </c>
       <c r="G80" t="n">
-        <v>-103447721.265781</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3149,18 +2949,19 @@
         <v>78842.822</v>
       </c>
       <c r="G81" t="n">
-        <v>-103368878.443781</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3182,18 +2983,19 @@
         <v>19523.5243</v>
       </c>
       <c r="G82" t="n">
-        <v>-103349354.919481</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3215,18 +3017,19 @@
         <v>4132.9853</v>
       </c>
       <c r="G83" t="n">
-        <v>-103349354.919481</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3248,18 +3051,19 @@
         <v>55693.2974</v>
       </c>
       <c r="G84" t="n">
-        <v>-103349354.919481</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3281,18 +3085,19 @@
         <v>163635.4143</v>
       </c>
       <c r="G85" t="n">
-        <v>-103185719.505181</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3314,18 +3119,19 @@
         <v>35565.4508</v>
       </c>
       <c r="G86" t="n">
-        <v>-103221284.955981</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3347,18 +3153,19 @@
         <v>193133.2332</v>
       </c>
       <c r="G87" t="n">
-        <v>-103414418.189181</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3380,18 +3187,19 @@
         <v>48560</v>
       </c>
       <c r="G88" t="n">
-        <v>-103365858.189181</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3413,18 +3221,19 @@
         <v>20787.6385</v>
       </c>
       <c r="G89" t="n">
-        <v>-103345070.550681</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3446,18 +3255,19 @@
         <v>88960.56479999999</v>
       </c>
       <c r="G90" t="n">
-        <v>-103256109.985881</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3479,18 +3289,19 @@
         <v>182947.95</v>
       </c>
       <c r="G91" t="n">
-        <v>-103256109.985881</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3512,18 +3323,19 @@
         <v>150</v>
       </c>
       <c r="G92" t="n">
-        <v>-103255959.985881</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3545,18 +3357,19 @@
         <v>12209.9635</v>
       </c>
       <c r="G93" t="n">
-        <v>-103268169.949381</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3578,18 +3391,19 @@
         <v>74396.37300000001</v>
       </c>
       <c r="G94" t="n">
-        <v>-103193773.576381</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3611,18 +3425,19 @@
         <v>20000</v>
       </c>
       <c r="G95" t="n">
-        <v>-103213773.576381</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3644,18 +3459,19 @@
         <v>11023.5855</v>
       </c>
       <c r="G96" t="n">
-        <v>-103202749.990881</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3677,18 +3493,19 @@
         <v>147126.5509676301</v>
       </c>
       <c r="G97" t="n">
-        <v>-103202749.990881</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3710,18 +3527,19 @@
         <v>150</v>
       </c>
       <c r="G98" t="n">
-        <v>-103202599.990881</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3743,18 +3561,19 @@
         <v>237368.7452</v>
       </c>
       <c r="G99" t="n">
-        <v>-103202599.990881</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3776,18 +3595,19 @@
         <v>50000</v>
       </c>
       <c r="G100" t="n">
-        <v>-103252599.990881</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3809,18 +3629,19 @@
         <v>150</v>
       </c>
       <c r="G101" t="n">
-        <v>-103252449.990881</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3842,18 +3663,19 @@
         <v>40000</v>
       </c>
       <c r="G102" t="n">
-        <v>-103292449.990881</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3875,18 +3697,19 @@
         <v>17431.9317</v>
       </c>
       <c r="G103" t="n">
-        <v>-103292449.990881</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3908,18 +3731,19 @@
         <v>197330.3097</v>
       </c>
       <c r="G104" t="n">
-        <v>-103489780.300581</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3941,18 +3765,19 @@
         <v>121883.1088</v>
       </c>
       <c r="G105" t="n">
-        <v>-103367897.191781</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3974,18 +3799,19 @@
         <v>650102.9577</v>
       </c>
       <c r="G106" t="n">
-        <v>-104018000.149481</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4007,18 +3833,19 @@
         <v>3140.6896</v>
       </c>
       <c r="G107" t="n">
-        <v>-104021140.839081</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4040,18 +3867,19 @@
         <v>7010.1916</v>
       </c>
       <c r="G108" t="n">
-        <v>-104021140.839081</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4073,18 +3901,19 @@
         <v>294561.3535</v>
       </c>
       <c r="G109" t="n">
-        <v>-104021140.839081</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4106,18 +3935,19 @@
         <v>8653.626099999999</v>
       </c>
       <c r="G110" t="n">
-        <v>-104029794.4651811</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4139,18 +3969,19 @@
         <v>150</v>
       </c>
       <c r="G111" t="n">
-        <v>-104029644.4651811</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4172,18 +4003,19 @@
         <v>147</v>
       </c>
       <c r="G112" t="n">
-        <v>-104029497.4651811</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4205,18 +4037,19 @@
         <v>118684.3726</v>
       </c>
       <c r="G113" t="n">
-        <v>-104148181.8377811</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4238,18 +4071,21 @@
         <v>118684.3726</v>
       </c>
       <c r="G114" t="n">
-        <v>-104266866.2103811</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>3.36</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4271,18 +4107,19 @@
         <v>57800</v>
       </c>
       <c r="G115" t="n">
-        <v>-104209066.2103811</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4304,18 +4141,21 @@
         <v>8532.6466</v>
       </c>
       <c r="G116" t="n">
-        <v>-104200533.5637811</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4337,18 +4177,19 @@
         <v>1594.1746</v>
       </c>
       <c r="G117" t="n">
-        <v>-104200533.5637811</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4370,18 +4211,19 @@
         <v>135126.821</v>
       </c>
       <c r="G118" t="n">
-        <v>-104065406.7427811</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4403,24 +4245,19 @@
         <v>594606.2328999999</v>
       </c>
       <c r="G119" t="n">
-        <v>-104660012.9756811</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4442,24 +4279,21 @@
         <v>14531.4514</v>
       </c>
       <c r="G120" t="n">
-        <v>-104645481.5242811</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
         <v>3.29</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4481,24 +4315,21 @@
         <v>351260.3788</v>
       </c>
       <c r="G121" t="n">
-        <v>-104645481.5242811</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
         <v>3.33</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4520,24 +4351,21 @@
         <v>1849.3134</v>
       </c>
       <c r="G122" t="n">
-        <v>-104645481.5242811</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
         <v>3.33</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4559,24 +4387,21 @@
         <v>8277.507</v>
       </c>
       <c r="G123" t="n">
-        <v>-104637204.0172811</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
         <v>3.33</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4598,24 +4423,21 @@
         <v>8277.507</v>
       </c>
       <c r="G124" t="n">
-        <v>-104628926.5102811</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
         <v>3.35</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4637,24 +4459,21 @@
         <v>150</v>
       </c>
       <c r="G125" t="n">
-        <v>-104628776.5102811</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
         <v>3.36</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4676,22 +4495,19 @@
         <v>10674.2056</v>
       </c>
       <c r="G126" t="n">
-        <v>-104628776.5102811</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4713,22 +4529,19 @@
         <v>4124.0537</v>
       </c>
       <c r="G127" t="n">
-        <v>-104632900.5639811</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4750,24 +4563,19 @@
         <v>8800</v>
       </c>
       <c r="G128" t="n">
-        <v>-104624100.5639811</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4789,24 +4597,21 @@
         <v>58007.507</v>
       </c>
       <c r="G129" t="n">
-        <v>-104624100.5639811</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
         <v>3.4</v>
       </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4828,22 +4633,21 @@
         <v>359628.6669</v>
       </c>
       <c r="G130" t="n">
-        <v>-104264471.8970811</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4865,22 +4669,21 @@
         <v>155200.3224</v>
       </c>
       <c r="G131" t="n">
-        <v>-104109271.5746811</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>3.41</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4902,22 +4705,21 @@
         <v>706717.049</v>
       </c>
       <c r="G132" t="n">
-        <v>-104815988.6236811</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4939,20 +4741,21 @@
         <v>196150</v>
       </c>
       <c r="G133" t="n">
-        <v>-104619838.6236811</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>3.41</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
       </c>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4974,18 +4777,21 @@
         <v>50000</v>
       </c>
       <c r="G134" t="n">
-        <v>-104619838.6236811</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>3.42</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
